--- a/reports/_MBL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_2_.xlsx
+++ b/reports/_MBL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_2_.xlsx
@@ -1888,10 +1888,10 @@
           <t>2017-1136</t>
         </is>
       </c>
-      <c r="X6" s="0" t="d">
+      <c r="X6" s="4" t="d">
         <v>2017-01-16T00:00:00</v>
       </c>
-      <c r="Y6" s="0" t="d">
+      <c r="Y6" s="4" t="d">
         <v>2017-01-17T00:00:00</v>
       </c>
       <c r="Z6" s="0" t="inlineStr">
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="V6" s="0"/>
-      <c r="W6" s="0" t="d">
+      <c r="W6" s="4" t="d">
         <v>2018-09-23T12:26:09.819</v>
       </c>
     </row>

--- a/reports/_MBL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_2_.xlsx
+++ b/reports/_MBL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_2_.xlsx
@@ -1639,7 +1639,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:59</t>
+          <t>Total number of containers:59</t>
         </is>
       </c>
     </row>
@@ -1815,15 +1815,15 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>8829</v>
+        <v>8891</v>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>MSKU7718973</t>
+          <t>MRKU0258961</t>
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
@@ -1847,17 +1847,17 @@
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>VASI SUN</t>
+          <t>BLPL GRACE</t>
         </is>
       </c>
       <c r="J6" s="0" t="inlineStr">
         <is>
-          <t>0116/2017</t>
+          <t>1650/2018</t>
         </is>
       </c>
       <c r="K6" s="0" t="inlineStr">
         <is>
-          <t>BENGAL TRADING</t>
+          <t>A A COARSE SPUN LTD</t>
         </is>
       </c>
       <c r="L6" s="0" t="inlineStr">
@@ -1874,25 +1874,25 @@
       <c r="S6" s="0"/>
       <c r="T6" s="0" t="inlineStr">
         <is>
-          <t>CHICK PEAS</t>
+          <t>RAW COTTON</t>
         </is>
       </c>
       <c r="U6" s="0" t="inlineStr">
         <is>
-          <t>AU0512384</t>
+          <t>KWH686828</t>
         </is>
       </c>
       <c r="V6" s="0"/>
       <c r="W6" s="0" t="inlineStr">
         <is>
-          <t>2017-1136</t>
+          <t>2018-9955</t>
         </is>
       </c>
       <c r="X6" s="4" t="d">
-        <v>2017-01-16T00:00:00</v>
+        <v>2018-05-29T00:00:00</v>
       </c>
       <c r="Y6" s="4" t="d">
-        <v>2017-01-17T00:00:00</v>
+        <v>2018-06-07T00:00:00</v>
       </c>
       <c r="Z6" s="0" t="inlineStr">
         <is>
@@ -1908,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="AC6" s="0" t="n">
-        <v>571749290</v>
+        <v>575334555</v>
       </c>
       <c r="AD6" s="0" t="n">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="AE6" s="0"/>
       <c r="AF6" s="0" t="inlineStr">
@@ -1926,15 +1926,15 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>8830</v>
+        <v>8892</v>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>MSKU2423244</t>
+          <t>MRKU0243200</t>
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
@@ -1958,17 +1958,17 @@
       </c>
       <c r="I7" s="0" t="inlineStr">
         <is>
-          <t>VASI SUN</t>
+          <t>BLPL GRACE</t>
         </is>
       </c>
       <c r="J7" s="0" t="inlineStr">
         <is>
-          <t>0116/2017</t>
+          <t>1650/2018</t>
         </is>
       </c>
       <c r="K7" s="0" t="inlineStr">
         <is>
-          <t>BENGAL TRADING</t>
+          <t>A A COARSE SPUN LTD</t>
         </is>
       </c>
       <c r="L7" s="0" t="inlineStr">
@@ -1985,25 +1985,25 @@
       <c r="S7" s="0"/>
       <c r="T7" s="0" t="inlineStr">
         <is>
-          <t>CHICK PEAS</t>
+          <t>RAW COTTON</t>
         </is>
       </c>
       <c r="U7" s="0" t="inlineStr">
         <is>
-          <t>AU0514169</t>
+          <t>KWH686758</t>
         </is>
       </c>
       <c r="V7" s="0"/>
       <c r="W7" s="0" t="inlineStr">
         <is>
-          <t>2017-1282</t>
+          <t>2018-9950</t>
         </is>
       </c>
       <c r="X7" s="4" t="d">
-        <v>2017-01-16T00:00:00</v>
+        <v>2018-05-29T00:00:00</v>
       </c>
       <c r="Y7" s="4" t="d">
-        <v>2017-01-21T00:00:00</v>
+        <v>2018-06-07T00:00:00</v>
       </c>
       <c r="Z7" s="0" t="inlineStr">
         <is>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="AC7" s="0" t="n">
-        <v>571749290</v>
+        <v>575334555</v>
       </c>
       <c r="AD7" s="0" t="n">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="AE7" s="0"/>
       <c r="AF7" s="0" t="inlineStr">
@@ -2037,11 +2037,11 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>8868</v>
+        <v>8893</v>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>MSKU9163730</t>
+          <t>SUDU8785619</t>
         </is>
       </c>
       <c r="D8" s="0" t="n">
@@ -2069,12 +2069,12 @@
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>BLPL GRACE</t>
         </is>
       </c>
       <c r="J8" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>1650/2018</t>
         </is>
       </c>
       <c r="K8" s="0" t="inlineStr">
@@ -2101,20 +2101,20 @@
       </c>
       <c r="U8" s="0" t="inlineStr">
         <is>
-          <t>KWH687344</t>
+          <t>KWH687329</t>
         </is>
       </c>
       <c r="V8" s="0"/>
       <c r="W8" s="0" t="inlineStr">
         <is>
-          <t>2018-9476</t>
+          <t>2018-10081</t>
         </is>
       </c>
       <c r="X8" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-05-29T00:00:00</v>
       </c>
       <c r="Y8" s="4" t="d">
-        <v>2018-05-30T00:00:00</v>
+        <v>2018-06-09T00:00:00</v>
       </c>
       <c r="Z8" s="0" t="inlineStr">
         <is>
@@ -2130,10 +2130,10 @@
         <v>0</v>
       </c>
       <c r="AC8" s="0" t="n">
-        <v>963897980</v>
+        <v>575334555</v>
       </c>
       <c r="AD8" s="0" t="n">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="AE8" s="0"/>
       <c r="AF8" s="0" t="inlineStr">
@@ -2148,11 +2148,11 @@
         <v>4</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>8869</v>
+        <v>9005</v>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>MSKU9055669</t>
+          <t>MSKU6440949</t>
         </is>
       </c>
       <c r="D9" s="0" t="n">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
@@ -2180,12 +2180,12 @@
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>BRIGHT</t>
         </is>
       </c>
       <c r="J9" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2174/2018</t>
         </is>
       </c>
       <c r="K9" s="0" t="inlineStr">
@@ -2212,20 +2212,20 @@
       </c>
       <c r="U9" s="0" t="inlineStr">
         <is>
-          <t>KWH687327</t>
+          <t>UL1614691</t>
         </is>
       </c>
       <c r="V9" s="0"/>
       <c r="W9" s="0" t="inlineStr">
         <is>
-          <t>2018-9477</t>
+          <t>2018-12092</t>
         </is>
       </c>
       <c r="X9" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-07-17T00:00:00</v>
       </c>
       <c r="Y9" s="4" t="d">
-        <v>2018-05-30T00:00:00</v>
+        <v>2018-07-19T00:00:00</v>
       </c>
       <c r="Z9" s="0" t="inlineStr">
         <is>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="AC9" s="0" t="n">
-        <v>963897980</v>
+        <v>964766879</v>
       </c>
       <c r="AD9" s="0" t="n">
-        <v>155</v>
+        <v>306</v>
       </c>
       <c r="AE9" s="0"/>
       <c r="AF9" s="0" t="inlineStr">
@@ -2259,11 +2259,11 @@
         <v>5</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>8870</v>
+        <v>9006</v>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>PONU1509889</t>
+          <t>MSKU9550235</t>
         </is>
       </c>
       <c r="D10" s="0" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F10" s="0" t="inlineStr">
@@ -2291,12 +2291,12 @@
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>BRIGHT</t>
         </is>
       </c>
       <c r="J10" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2174/2018</t>
         </is>
       </c>
       <c r="K10" s="0" t="inlineStr">
@@ -2323,20 +2323,20 @@
       </c>
       <c r="U10" s="0" t="inlineStr">
         <is>
-          <t>KWH686765</t>
+          <t>UL1614692</t>
         </is>
       </c>
       <c r="V10" s="0"/>
       <c r="W10" s="0" t="inlineStr">
         <is>
-          <t>2018-9491</t>
+          <t>2018-12107</t>
         </is>
       </c>
       <c r="X10" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-07-17T00:00:00</v>
       </c>
       <c r="Y10" s="4" t="d">
-        <v>2018-05-30T00:00:00</v>
+        <v>2018-07-19T00:00:00</v>
       </c>
       <c r="Z10" s="0" t="inlineStr">
         <is>
@@ -2352,10 +2352,10 @@
         <v>0</v>
       </c>
       <c r="AC10" s="0" t="n">
-        <v>963897980</v>
+        <v>964766879</v>
       </c>
       <c r="AD10" s="0" t="n">
-        <v>155</v>
+        <v>306</v>
       </c>
       <c r="AE10" s="0"/>
       <c r="AF10" s="0" t="inlineStr">
@@ -2370,11 +2370,11 @@
         <v>6</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>8871</v>
+        <v>9007</v>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>SUDU6787150</t>
+          <t>GLDU0996495</t>
         </is>
       </c>
       <c r="D11" s="0" t="n">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="I11" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>BRIGHT</t>
         </is>
       </c>
       <c r="J11" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2174/2018</t>
         </is>
       </c>
       <c r="K11" s="0" t="inlineStr">
@@ -2434,20 +2434,20 @@
       </c>
       <c r="U11" s="0" t="inlineStr">
         <is>
-          <t>KWH686903</t>
+          <t>UL1614690</t>
         </is>
       </c>
       <c r="V11" s="0"/>
       <c r="W11" s="0" t="inlineStr">
         <is>
-          <t>2018-9489</t>
+          <t>2018-12180</t>
         </is>
       </c>
       <c r="X11" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-07-17T00:00:00</v>
       </c>
       <c r="Y11" s="4" t="d">
-        <v>2018-05-30T00:00:00</v>
+        <v>2018-07-20T00:00:00</v>
       </c>
       <c r="Z11" s="0" t="inlineStr">
         <is>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="AC11" s="0" t="n">
-        <v>963897980</v>
+        <v>964766879</v>
       </c>
       <c r="AD11" s="0" t="n">
-        <v>155</v>
+        <v>306</v>
       </c>
       <c r="AE11" s="0"/>
       <c r="AF11" s="0" t="inlineStr">
@@ -2481,11 +2481,11 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>8872</v>
+        <v>9008</v>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>MSKU0599445</t>
+          <t>MRKU0087827</t>
         </is>
       </c>
       <c r="D12" s="0" t="n">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F12" s="0" t="inlineStr">
@@ -2513,12 +2513,12 @@
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>BRIGHT</t>
         </is>
       </c>
       <c r="J12" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2174/2018</t>
         </is>
       </c>
       <c r="K12" s="0" t="inlineStr">
@@ -2545,20 +2545,20 @@
       </c>
       <c r="U12" s="0" t="inlineStr">
         <is>
-          <t>KWH686830</t>
+          <t>UL1614693</t>
         </is>
       </c>
       <c r="V12" s="0"/>
       <c r="W12" s="0" t="inlineStr">
         <is>
-          <t>2018-9490</t>
+          <t>2018-12164</t>
         </is>
       </c>
       <c r="X12" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-07-17T00:00:00</v>
       </c>
       <c r="Y12" s="4" t="d">
-        <v>2018-05-30T00:00:00</v>
+        <v>2018-07-20T00:00:00</v>
       </c>
       <c r="Z12" s="0" t="inlineStr">
         <is>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="AC12" s="0" t="n">
-        <v>963897980</v>
+        <v>964766879</v>
       </c>
       <c r="AD12" s="0" t="n">
-        <v>155</v>
+        <v>306</v>
       </c>
       <c r="AE12" s="0"/>
       <c r="AF12" s="0" t="inlineStr">
@@ -2592,11 +2592,11 @@
         <v>8</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>8873</v>
+        <v>9009</v>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>MSKU8668440</t>
+          <t>MSKU8517886</t>
         </is>
       </c>
       <c r="D13" s="0" t="n">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="I13" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>BRIGHT</t>
         </is>
       </c>
       <c r="J13" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2174/2018</t>
         </is>
       </c>
       <c r="K13" s="0" t="inlineStr">
@@ -2656,20 +2656,20 @@
       </c>
       <c r="U13" s="0" t="inlineStr">
         <is>
-          <t>KWH687350</t>
+          <t>UL1615420</t>
         </is>
       </c>
       <c r="V13" s="0"/>
       <c r="W13" s="0" t="inlineStr">
         <is>
-          <t>2018-9485</t>
+          <t>2018-12102</t>
         </is>
       </c>
       <c r="X13" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-07-17T00:00:00</v>
       </c>
       <c r="Y13" s="4" t="d">
-        <v>2018-05-30T00:00:00</v>
+        <v>2018-07-19T00:00:00</v>
       </c>
       <c r="Z13" s="0" t="inlineStr">
         <is>
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="AC13" s="0" t="n">
-        <v>963897980</v>
+        <v>964573753</v>
       </c>
       <c r="AD13" s="0" t="n">
-        <v>155</v>
+        <v>302</v>
       </c>
       <c r="AE13" s="0"/>
       <c r="AF13" s="0" t="inlineStr">
@@ -2703,11 +2703,11 @@
         <v>9</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>8874</v>
+        <v>9010</v>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>PONU1855367</t>
+          <t>TRLU6876549</t>
         </is>
       </c>
       <c r="D14" s="0" t="n">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F14" s="0" t="inlineStr">
@@ -2735,12 +2735,12 @@
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>BRIGHT</t>
         </is>
       </c>
       <c r="J14" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2174/2018</t>
         </is>
       </c>
       <c r="K14" s="0" t="inlineStr">
@@ -2767,20 +2767,20 @@
       </c>
       <c r="U14" s="0" t="inlineStr">
         <is>
-          <t>KWH686929</t>
+          <t>UL1615419</t>
         </is>
       </c>
       <c r="V14" s="0"/>
       <c r="W14" s="0" t="inlineStr">
         <is>
-          <t>2018-9501</t>
+          <t>2018-12138</t>
         </is>
       </c>
       <c r="X14" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-07-17T00:00:00</v>
       </c>
       <c r="Y14" s="4" t="d">
-        <v>2018-05-30T00:00:00</v>
+        <v>2018-07-19T00:00:00</v>
       </c>
       <c r="Z14" s="0" t="inlineStr">
         <is>
@@ -2796,10 +2796,10 @@
         <v>0</v>
       </c>
       <c r="AC14" s="0" t="n">
-        <v>963897980</v>
+        <v>964573753</v>
       </c>
       <c r="AD14" s="0" t="n">
-        <v>155</v>
+        <v>302</v>
       </c>
       <c r="AE14" s="0"/>
       <c r="AF14" s="0" t="inlineStr">
@@ -2814,11 +2814,11 @@
         <v>10</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>8875</v>
+        <v>9011</v>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>MSKU6694310</t>
+          <t>MAEU6357369</t>
         </is>
       </c>
       <c r="D15" s="0" t="n">
@@ -2846,12 +2846,12 @@
       </c>
       <c r="I15" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>BRIGHT</t>
         </is>
       </c>
       <c r="J15" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2174/2018</t>
         </is>
       </c>
       <c r="K15" s="0" t="inlineStr">
@@ -2878,20 +2878,20 @@
       </c>
       <c r="U15" s="0" t="inlineStr">
         <is>
-          <t>KWH632850</t>
+          <t>UL1615421</t>
         </is>
       </c>
       <c r="V15" s="0"/>
       <c r="W15" s="0" t="inlineStr">
         <is>
-          <t>2018-9543</t>
+          <t>2018-12171</t>
         </is>
       </c>
       <c r="X15" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-07-17T00:00:00</v>
       </c>
       <c r="Y15" s="4" t="d">
-        <v>2018-05-31T00:00:00</v>
+        <v>2018-07-20T00:00:00</v>
       </c>
       <c r="Z15" s="0" t="inlineStr">
         <is>
@@ -2907,10 +2907,10 @@
         <v>0</v>
       </c>
       <c r="AC15" s="0" t="n">
-        <v>963897980</v>
+        <v>964573753</v>
       </c>
       <c r="AD15" s="0" t="n">
-        <v>155</v>
+        <v>302</v>
       </c>
       <c r="AE15" s="0"/>
       <c r="AF15" s="0" t="inlineStr">
@@ -2925,11 +2925,11 @@
         <v>11</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>8876</v>
+        <v>9012</v>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>MSKU6654010</t>
+          <t>MSKU6094337</t>
         </is>
       </c>
       <c r="D16" s="0" t="n">
@@ -2957,12 +2957,12 @@
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>BRIGHT</t>
         </is>
       </c>
       <c r="J16" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2174/2018</t>
         </is>
       </c>
       <c r="K16" s="0" t="inlineStr">
@@ -2989,20 +2989,20 @@
       </c>
       <c r="U16" s="0" t="inlineStr">
         <is>
-          <t>KWH687345</t>
+          <t>UL1615417</t>
         </is>
       </c>
       <c r="V16" s="0"/>
       <c r="W16" s="0" t="inlineStr">
         <is>
-          <t>2018-9544</t>
+          <t>2018-12187</t>
         </is>
       </c>
       <c r="X16" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-07-17T00:00:00</v>
       </c>
       <c r="Y16" s="4" t="d">
-        <v>2018-05-31T00:00:00</v>
+        <v>2018-07-23T00:00:00</v>
       </c>
       <c r="Z16" s="0" t="inlineStr">
         <is>
@@ -3018,10 +3018,10 @@
         <v>0</v>
       </c>
       <c r="AC16" s="0" t="n">
-        <v>963897980</v>
+        <v>964573753</v>
       </c>
       <c r="AD16" s="0" t="n">
-        <v>155</v>
+        <v>302</v>
       </c>
       <c r="AE16" s="0"/>
       <c r="AF16" s="0" t="inlineStr">
@@ -3036,11 +3036,11 @@
         <v>12</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>8877</v>
+        <v>9013</v>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>MSKU8000770</t>
+          <t>MSKU6509705</t>
         </is>
       </c>
       <c r="D17" s="0" t="n">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
@@ -3068,12 +3068,12 @@
       </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>BRIGHT</t>
         </is>
       </c>
       <c r="J17" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2174/2018</t>
         </is>
       </c>
       <c r="K17" s="0" t="inlineStr">
@@ -3100,20 +3100,20 @@
       </c>
       <c r="U17" s="0" t="inlineStr">
         <is>
-          <t>KWH686930</t>
+          <t>KWH687414</t>
         </is>
       </c>
       <c r="V17" s="0"/>
       <c r="W17" s="0" t="inlineStr">
         <is>
-          <t>2018-9534</t>
+          <t>2018-12091</t>
         </is>
       </c>
       <c r="X17" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-07-17T00:00:00</v>
       </c>
       <c r="Y17" s="4" t="d">
-        <v>2018-05-31T00:00:00</v>
+        <v>2018-07-20T00:00:00</v>
       </c>
       <c r="Z17" s="0" t="inlineStr">
         <is>
@@ -3129,10 +3129,10 @@
         <v>0</v>
       </c>
       <c r="AC17" s="0" t="n">
-        <v>963897980</v>
+        <v>575756665</v>
       </c>
       <c r="AD17" s="0" t="n">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="AE17" s="0"/>
       <c r="AF17" s="0" t="inlineStr">
@@ -3147,11 +3147,11 @@
         <v>13</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>8878</v>
+        <v>9040</v>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>PONU1823713</t>
+          <t>TGHU6043898</t>
         </is>
       </c>
       <c r="D18" s="0" t="n">
@@ -3159,7 +3159,7 @@
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
@@ -3179,12 +3179,12 @@
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>OEL BANGLADESH</t>
         </is>
       </c>
       <c r="J18" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2232/2018</t>
         </is>
       </c>
       <c r="K18" s="0" t="inlineStr">
@@ -3209,22 +3209,20 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="U18" s="0" t="inlineStr">
-        <is>
-          <t>KWH687283</t>
-        </is>
+      <c r="U18" s="0" t="n">
+        <v>2185060</v>
       </c>
       <c r="V18" s="0"/>
       <c r="W18" s="0" t="inlineStr">
         <is>
-          <t>2018-9500</t>
+          <t>2018-12875</t>
         </is>
       </c>
       <c r="X18" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-07-30T00:00:00</v>
       </c>
       <c r="Y18" s="4" t="d">
-        <v>2018-06-02T00:00:00</v>
+        <v>2018-07-31T00:00:00</v>
       </c>
       <c r="Z18" s="0" t="inlineStr">
         <is>
@@ -3240,10 +3238,10 @@
         <v>0</v>
       </c>
       <c r="AC18" s="0" t="n">
-        <v>963897980</v>
+        <v>964620392</v>
       </c>
       <c r="AD18" s="0" t="n">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="AE18" s="0"/>
       <c r="AF18" s="0" t="inlineStr">
@@ -3258,11 +3256,11 @@
         <v>14</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>8879</v>
+        <v>9041</v>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>HASU4651075</t>
+          <t>MSKU0637123</t>
         </is>
       </c>
       <c r="D19" s="0" t="n">
@@ -3290,12 +3288,12 @@
       </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>OEL BANGLADESH</t>
         </is>
       </c>
       <c r="J19" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2232/2018</t>
         </is>
       </c>
       <c r="K19" s="0" t="inlineStr">
@@ -3321,19 +3319,19 @@
         </is>
       </c>
       <c r="U19" s="0" t="n">
-        <v>686923</v>
+        <v>2830816</v>
       </c>
       <c r="V19" s="0"/>
       <c r="W19" s="0" t="inlineStr">
         <is>
-          <t>2018-9671</t>
+          <t>2018-12868</t>
         </is>
       </c>
       <c r="X19" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-07-30T00:00:00</v>
       </c>
       <c r="Y19" s="4" t="d">
-        <v>2018-06-02T00:00:00</v>
+        <v>2018-07-31T00:00:00</v>
       </c>
       <c r="Z19" s="0" t="inlineStr">
         <is>
@@ -3349,10 +3347,10 @@
         <v>0</v>
       </c>
       <c r="AC19" s="0" t="n">
-        <v>963897980</v>
+        <v>964620392</v>
       </c>
       <c r="AD19" s="0" t="n">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="AE19" s="0"/>
       <c r="AF19" s="0" t="inlineStr">
@@ -3367,11 +3365,11 @@
         <v>15</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>8880</v>
+        <v>9042</v>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>PONU1438403</t>
+          <t>PONU1819272</t>
         </is>
       </c>
       <c r="D20" s="0" t="n">
@@ -3379,7 +3377,7 @@
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
@@ -3399,12 +3397,12 @@
       </c>
       <c r="I20" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>OEL BANGLADESH</t>
         </is>
       </c>
       <c r="J20" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2232/2018</t>
         </is>
       </c>
       <c r="K20" s="0" t="inlineStr">
@@ -3431,20 +3429,20 @@
       </c>
       <c r="U20" s="0" t="inlineStr">
         <is>
-          <t>KWH687276</t>
+          <t>UL2830749</t>
         </is>
       </c>
       <c r="V20" s="0"/>
       <c r="W20" s="0" t="inlineStr">
         <is>
-          <t>2018-9672</t>
+          <t>2018-12930</t>
         </is>
       </c>
       <c r="X20" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-07-30T00:00:00</v>
       </c>
       <c r="Y20" s="4" t="d">
-        <v>2018-06-02T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Z20" s="0" t="inlineStr">
         <is>
@@ -3460,10 +3458,10 @@
         <v>0</v>
       </c>
       <c r="AC20" s="0" t="n">
-        <v>963897980</v>
+        <v>964620392</v>
       </c>
       <c r="AD20" s="0" t="n">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="AE20" s="0"/>
       <c r="AF20" s="0" t="inlineStr">
@@ -3478,11 +3476,11 @@
         <v>16</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>8881</v>
+        <v>9043</v>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>MSKU6316727</t>
+          <t>CAXU9261436</t>
         </is>
       </c>
       <c r="D21" s="0" t="n">
@@ -3490,7 +3488,7 @@
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
@@ -3510,12 +3508,12 @@
       </c>
       <c r="I21" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>OEL BANGLADESH</t>
         </is>
       </c>
       <c r="J21" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2232/2018</t>
         </is>
       </c>
       <c r="K21" s="0" t="inlineStr">
@@ -3540,22 +3538,20 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="U21" s="0" t="inlineStr">
-        <is>
-          <t>UL2916156</t>
-        </is>
+      <c r="U21" s="0" t="n">
+        <v>4107818</v>
       </c>
       <c r="V21" s="0"/>
       <c r="W21" s="0" t="inlineStr">
         <is>
-          <t>2018-9673</t>
+          <t>2018-12935</t>
         </is>
       </c>
       <c r="X21" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-07-30T00:00:00</v>
       </c>
       <c r="Y21" s="4" t="d">
-        <v>2018-06-02T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Z21" s="0" t="inlineStr">
         <is>
@@ -3571,10 +3567,10 @@
         <v>0</v>
       </c>
       <c r="AC21" s="0" t="n">
-        <v>963897980</v>
+        <v>964620392</v>
       </c>
       <c r="AD21" s="0" t="n">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="AE21" s="0"/>
       <c r="AF21" s="0" t="inlineStr">
@@ -3589,11 +3585,11 @@
         <v>17</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>8882</v>
+        <v>9044</v>
       </c>
       <c r="C22" s="0" t="inlineStr">
         <is>
-          <t>MAEU6360629</t>
+          <t>PONU8266482</t>
         </is>
       </c>
       <c r="D22" s="0" t="n">
@@ -3601,7 +3597,7 @@
       </c>
       <c r="E22" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F22" s="0" t="inlineStr">
@@ -3621,12 +3617,12 @@
       </c>
       <c r="I22" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>OEL BANGLADESH</t>
         </is>
       </c>
       <c r="J22" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2232/2018</t>
         </is>
       </c>
       <c r="K22" s="0" t="inlineStr">
@@ -3653,20 +3649,20 @@
       </c>
       <c r="U22" s="0" t="inlineStr">
         <is>
-          <t>KWH687285</t>
+          <t>UL2830749</t>
         </is>
       </c>
       <c r="V22" s="0"/>
       <c r="W22" s="0" t="inlineStr">
         <is>
-          <t>2018-9574</t>
+          <t>2018-12940</t>
         </is>
       </c>
       <c r="X22" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-07-30T00:00:00</v>
       </c>
       <c r="Y22" s="4" t="d">
-        <v>2018-06-02T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Z22" s="0" t="inlineStr">
         <is>
@@ -3682,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="AC22" s="0" t="n">
-        <v>963897980</v>
+        <v>964620392</v>
       </c>
       <c r="AD22" s="0" t="n">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="AE22" s="0"/>
       <c r="AF22" s="0" t="inlineStr">
@@ -3700,11 +3696,11 @@
         <v>18</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>8883</v>
+        <v>9045</v>
       </c>
       <c r="C23" s="0" t="inlineStr">
         <is>
-          <t>PONU1484707</t>
+          <t>PONU7811427</t>
         </is>
       </c>
       <c r="D23" s="0" t="n">
@@ -3712,7 +3708,7 @@
       </c>
       <c r="E23" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F23" s="0" t="inlineStr">
@@ -3732,12 +3728,12 @@
       </c>
       <c r="I23" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="J23" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2291/2018</t>
         </is>
       </c>
       <c r="K23" s="0" t="inlineStr">
@@ -3764,20 +3760,20 @@
       </c>
       <c r="U23" s="0" t="inlineStr">
         <is>
-          <t>KWH687286</t>
+          <t>UL2830879</t>
         </is>
       </c>
       <c r="V23" s="0"/>
       <c r="W23" s="0" t="inlineStr">
         <is>
-          <t>2018-9679</t>
+          <t>2018-12988</t>
         </is>
       </c>
       <c r="X23" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Y23" s="4" t="d">
-        <v>2018-06-02T00:00:00</v>
+        <v>2018-08-03T00:00:00</v>
       </c>
       <c r="Z23" s="0" t="inlineStr">
         <is>
@@ -3793,10 +3789,10 @@
         <v>0</v>
       </c>
       <c r="AC23" s="0" t="n">
-        <v>963897980</v>
+        <v>964694340</v>
       </c>
       <c r="AD23" s="0" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="AE23" s="0"/>
       <c r="AF23" s="0" t="inlineStr">
@@ -3811,11 +3807,11 @@
         <v>19</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>8884</v>
+        <v>9046</v>
       </c>
       <c r="C24" s="0" t="inlineStr">
         <is>
-          <t>MRKU3419530</t>
+          <t>PONU7918251</t>
         </is>
       </c>
       <c r="D24" s="0" t="n">
@@ -3843,12 +3839,12 @@
       </c>
       <c r="I24" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="J24" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2291/2018</t>
         </is>
       </c>
       <c r="K24" s="0" t="inlineStr">
@@ -3873,20 +3869,22 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="U24" s="0" t="n">
-        <v>1098426</v>
+      <c r="U24" s="0" t="inlineStr">
+        <is>
+          <t>UL2830857</t>
+        </is>
       </c>
       <c r="V24" s="0"/>
       <c r="W24" s="0" t="inlineStr">
         <is>
-          <t>2018-9632</t>
+          <t>2018-12986</t>
         </is>
       </c>
       <c r="X24" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Y24" s="4" t="d">
-        <v>2018-06-03T00:00:00</v>
+        <v>2018-08-03T00:00:00</v>
       </c>
       <c r="Z24" s="0" t="inlineStr">
         <is>
@@ -3902,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="AC24" s="0" t="n">
-        <v>963897980</v>
+        <v>964694340</v>
       </c>
       <c r="AD24" s="0" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="AE24" s="0"/>
       <c r="AF24" s="0" t="inlineStr">
@@ -3920,11 +3918,11 @@
         <v>20</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>8885</v>
+        <v>9047</v>
       </c>
       <c r="C25" s="0" t="inlineStr">
         <is>
-          <t>PONU7575743</t>
+          <t>PONU1692260</t>
         </is>
       </c>
       <c r="D25" s="0" t="n">
@@ -3932,7 +3930,7 @@
       </c>
       <c r="E25" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F25" s="0" t="inlineStr">
@@ -3952,12 +3950,12 @@
       </c>
       <c r="I25" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="J25" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2291/2018</t>
         </is>
       </c>
       <c r="K25" s="0" t="inlineStr">
@@ -3984,20 +3982,20 @@
       </c>
       <c r="U25" s="0" t="inlineStr">
         <is>
-          <t>KWH686922</t>
+          <t>UL2830877</t>
         </is>
       </c>
       <c r="V25" s="0"/>
       <c r="W25" s="0" t="inlineStr">
         <is>
-          <t>2018-9506</t>
+          <t>2018-12992</t>
         </is>
       </c>
       <c r="X25" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Y25" s="4" t="d">
-        <v>2018-06-04T00:00:00</v>
+        <v>2018-08-03T00:00:00</v>
       </c>
       <c r="Z25" s="0" t="inlineStr">
         <is>
@@ -4013,10 +4011,10 @@
         <v>0</v>
       </c>
       <c r="AC25" s="0" t="n">
-        <v>963897980</v>
+        <v>964694340</v>
       </c>
       <c r="AD25" s="0" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="AE25" s="0"/>
       <c r="AF25" s="0" t="inlineStr">
@@ -4031,11 +4029,11 @@
         <v>21</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>8886</v>
+        <v>9048</v>
       </c>
       <c r="C26" s="0" t="inlineStr">
         <is>
-          <t>TCLU5436696</t>
+          <t>MSKU9609945</t>
         </is>
       </c>
       <c r="D26" s="0" t="n">
@@ -4063,12 +4061,12 @@
       </c>
       <c r="I26" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="J26" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2291/2018</t>
         </is>
       </c>
       <c r="K26" s="0" t="inlineStr">
@@ -4095,20 +4093,20 @@
       </c>
       <c r="U26" s="0" t="inlineStr">
         <is>
-          <t>KWH687295</t>
+          <t>UL2830851</t>
         </is>
       </c>
       <c r="V26" s="0"/>
       <c r="W26" s="0" t="inlineStr">
         <is>
-          <t>2018-9736</t>
+          <t>2018-12991</t>
         </is>
       </c>
       <c r="X26" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Y26" s="4" t="d">
-        <v>2018-06-04T00:00:00</v>
+        <v>2018-08-03T00:00:00</v>
       </c>
       <c r="Z26" s="0" t="inlineStr">
         <is>
@@ -4124,10 +4122,10 @@
         <v>0</v>
       </c>
       <c r="AC26" s="0" t="n">
-        <v>963897980</v>
+        <v>964694340</v>
       </c>
       <c r="AD26" s="0" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="AE26" s="0"/>
       <c r="AF26" s="0" t="inlineStr">
@@ -4142,11 +4140,11 @@
         <v>22</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>8887</v>
+        <v>9049</v>
       </c>
       <c r="C27" s="0" t="inlineStr">
         <is>
-          <t>MSKU6253948</t>
+          <t>MSKU8354454</t>
         </is>
       </c>
       <c r="D27" s="0" t="n">
@@ -4154,7 +4152,7 @@
       </c>
       <c r="E27" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F27" s="0" t="inlineStr">
@@ -4174,12 +4172,12 @@
       </c>
       <c r="I27" s="0" t="inlineStr">
         <is>
-          <t>BLPL GRACE</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="J27" s="0" t="inlineStr">
         <is>
-          <t>1650/2018</t>
+          <t>2291/2018</t>
         </is>
       </c>
       <c r="K27" s="0" t="inlineStr">
@@ -4206,20 +4204,20 @@
       </c>
       <c r="U27" s="0" t="inlineStr">
         <is>
-          <t>KWH686907</t>
+          <t>UL2830854</t>
         </is>
       </c>
       <c r="V27" s="0"/>
       <c r="W27" s="0" t="inlineStr">
         <is>
-          <t>2018-9531</t>
+          <t>2018-12990</t>
         </is>
       </c>
       <c r="X27" s="4" t="d">
-        <v>2018-05-29T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Y27" s="4" t="d">
-        <v>2018-05-31T00:00:00</v>
+        <v>2018-08-03T00:00:00</v>
       </c>
       <c r="Z27" s="0" t="inlineStr">
         <is>
@@ -4235,10 +4233,10 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0" t="n">
-        <v>575334555</v>
+        <v>964694340</v>
       </c>
       <c r="AD27" s="0" t="n">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="AE27" s="0"/>
       <c r="AF27" s="0" t="inlineStr">
@@ -4253,11 +4251,11 @@
         <v>23</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>8888</v>
+        <v>9050</v>
       </c>
       <c r="C28" s="0" t="inlineStr">
         <is>
-          <t>MSKU6120061</t>
+          <t>PONU1894316</t>
         </is>
       </c>
       <c r="D28" s="0" t="n">
@@ -4285,12 +4283,12 @@
       </c>
       <c r="I28" s="0" t="inlineStr">
         <is>
-          <t>BLPL GRACE</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="J28" s="0" t="inlineStr">
         <is>
-          <t>1650/2018</t>
+          <t>2291/2018</t>
         </is>
       </c>
       <c r="K28" s="0" t="inlineStr">
@@ -4317,20 +4315,20 @@
       </c>
       <c r="U28" s="0" t="inlineStr">
         <is>
-          <t>KWH687320</t>
+          <t>UL2830882</t>
         </is>
       </c>
       <c r="V28" s="0"/>
       <c r="W28" s="0" t="inlineStr">
         <is>
-          <t>2018-9532</t>
+          <t>2018-12995</t>
         </is>
       </c>
       <c r="X28" s="4" t="d">
-        <v>2018-05-29T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Y28" s="4" t="d">
-        <v>2018-05-31T00:00:00</v>
+        <v>2018-08-03T00:00:00</v>
       </c>
       <c r="Z28" s="0" t="inlineStr">
         <is>
@@ -4346,10 +4344,10 @@
         <v>0</v>
       </c>
       <c r="AC28" s="0" t="n">
-        <v>575334555</v>
+        <v>964694340</v>
       </c>
       <c r="AD28" s="0" t="n">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="AE28" s="0"/>
       <c r="AF28" s="0" t="inlineStr">
@@ -4364,11 +4362,11 @@
         <v>24</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>8889</v>
+        <v>9051</v>
       </c>
       <c r="C29" s="0" t="inlineStr">
         <is>
-          <t>PONU7330756</t>
+          <t>MSKU9252694</t>
         </is>
       </c>
       <c r="D29" s="0" t="n">
@@ -4396,12 +4394,12 @@
       </c>
       <c r="I29" s="0" t="inlineStr">
         <is>
-          <t>BLPL GRACE</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="J29" s="0" t="inlineStr">
         <is>
-          <t>1650/2018</t>
+          <t>2291/2018</t>
         </is>
       </c>
       <c r="K29" s="0" t="inlineStr">
@@ -4428,20 +4426,20 @@
       </c>
       <c r="U29" s="0" t="inlineStr">
         <is>
-          <t>KWH687322</t>
+          <t>UL2830875</t>
         </is>
       </c>
       <c r="V29" s="0"/>
       <c r="W29" s="0" t="inlineStr">
         <is>
-          <t>2018-9693</t>
+          <t>2018-12998</t>
         </is>
       </c>
       <c r="X29" s="4" t="d">
-        <v>2018-05-29T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Y29" s="4" t="d">
-        <v>2018-06-03T00:00:00</v>
+        <v>2018-08-03T00:00:00</v>
       </c>
       <c r="Z29" s="0" t="inlineStr">
         <is>
@@ -4457,10 +4455,10 @@
         <v>0</v>
       </c>
       <c r="AC29" s="0" t="n">
-        <v>575334555</v>
+        <v>964694340</v>
       </c>
       <c r="AD29" s="0" t="n">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="AE29" s="0"/>
       <c r="AF29" s="0" t="inlineStr">
@@ -4475,11 +4473,11 @@
         <v>25</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>8890</v>
+        <v>9052</v>
       </c>
       <c r="C30" s="0" t="inlineStr">
         <is>
-          <t>SUDU8595563</t>
+          <t>MSKU9470931</t>
         </is>
       </c>
       <c r="D30" s="0" t="n">
@@ -4507,12 +4505,12 @@
       </c>
       <c r="I30" s="0" t="inlineStr">
         <is>
-          <t>BLPL GRACE</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="J30" s="0" t="inlineStr">
         <is>
-          <t>1650/2018</t>
+          <t>2291/2018</t>
         </is>
       </c>
       <c r="K30" s="0" t="inlineStr">
@@ -4539,20 +4537,20 @@
       </c>
       <c r="U30" s="0" t="inlineStr">
         <is>
-          <t>KWH686925</t>
+          <t>UL2830855</t>
         </is>
       </c>
       <c r="V30" s="0"/>
       <c r="W30" s="0" t="inlineStr">
         <is>
-          <t>2018-9704</t>
+          <t>2018-12999</t>
         </is>
       </c>
       <c r="X30" s="4" t="d">
-        <v>2018-05-29T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Y30" s="4" t="d">
-        <v>2018-06-03T00:00:00</v>
+        <v>2018-08-03T00:00:00</v>
       </c>
       <c r="Z30" s="0" t="inlineStr">
         <is>
@@ -4568,10 +4566,10 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0" t="n">
-        <v>575334555</v>
+        <v>964694340</v>
       </c>
       <c r="AD30" s="0" t="n">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="AE30" s="0"/>
       <c r="AF30" s="0" t="inlineStr">
@@ -4586,11 +4584,11 @@
         <v>26</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>8891</v>
+        <v>9053</v>
       </c>
       <c r="C31" s="0" t="inlineStr">
         <is>
-          <t>MRKU0258961</t>
+          <t>MSKU8752592</t>
         </is>
       </c>
       <c r="D31" s="0" t="n">
@@ -4598,7 +4596,7 @@
       </c>
       <c r="E31" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F31" s="0" t="inlineStr">
@@ -4618,12 +4616,12 @@
       </c>
       <c r="I31" s="0" t="inlineStr">
         <is>
-          <t>BLPL GRACE</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="J31" s="0" t="inlineStr">
         <is>
-          <t>1650/2018</t>
+          <t>2291/2018</t>
         </is>
       </c>
       <c r="K31" s="0" t="inlineStr">
@@ -4650,20 +4648,20 @@
       </c>
       <c r="U31" s="0" t="inlineStr">
         <is>
-          <t>KWH686828</t>
+          <t>UL2830880</t>
         </is>
       </c>
       <c r="V31" s="0"/>
       <c r="W31" s="0" t="inlineStr">
         <is>
-          <t>2018-9955</t>
+          <t>2018-12997</t>
         </is>
       </c>
       <c r="X31" s="4" t="d">
-        <v>2018-05-29T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Y31" s="4" t="d">
-        <v>2018-06-07T00:00:00</v>
+        <v>2018-08-03T00:00:00</v>
       </c>
       <c r="Z31" s="0" t="inlineStr">
         <is>
@@ -4679,10 +4677,10 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0" t="n">
-        <v>575334555</v>
+        <v>964694340</v>
       </c>
       <c r="AD31" s="0" t="n">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="AE31" s="0"/>
       <c r="AF31" s="0" t="inlineStr">
@@ -4697,11 +4695,11 @@
         <v>27</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>8892</v>
+        <v>9054</v>
       </c>
       <c r="C32" s="0" t="inlineStr">
         <is>
-          <t>MRKU0243200</t>
+          <t>MIEU3069581</t>
         </is>
       </c>
       <c r="D32" s="0" t="n">
@@ -4709,7 +4707,7 @@
       </c>
       <c r="E32" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F32" s="0" t="inlineStr">
@@ -4729,12 +4727,12 @@
       </c>
       <c r="I32" s="0" t="inlineStr">
         <is>
-          <t>BLPL GRACE</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="J32" s="0" t="inlineStr">
         <is>
-          <t>1650/2018</t>
+          <t>2291/2018</t>
         </is>
       </c>
       <c r="K32" s="0" t="inlineStr">
@@ -4761,20 +4759,20 @@
       </c>
       <c r="U32" s="0" t="inlineStr">
         <is>
-          <t>KWH686758</t>
+          <t>UL2830853</t>
         </is>
       </c>
       <c r="V32" s="0"/>
       <c r="W32" s="0" t="inlineStr">
         <is>
-          <t>2018-9950</t>
+          <t>2018-13084</t>
         </is>
       </c>
       <c r="X32" s="4" t="d">
-        <v>2018-05-29T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Y32" s="4" t="d">
-        <v>2018-06-07T00:00:00</v>
+        <v>2018-08-04T00:00:00</v>
       </c>
       <c r="Z32" s="0" t="inlineStr">
         <is>
@@ -4790,10 +4788,10 @@
         <v>0</v>
       </c>
       <c r="AC32" s="0" t="n">
-        <v>575334555</v>
+        <v>964694340</v>
       </c>
       <c r="AD32" s="0" t="n">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="AE32" s="0"/>
       <c r="AF32" s="0" t="inlineStr">
@@ -4808,11 +4806,11 @@
         <v>28</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>8893</v>
+        <v>9055</v>
       </c>
       <c r="C33" s="0" t="inlineStr">
         <is>
-          <t>SUDU8785619</t>
+          <t>MSKU6874333</t>
         </is>
       </c>
       <c r="D33" s="0" t="n">
@@ -4820,7 +4818,7 @@
       </c>
       <c r="E33" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F33" s="0" t="inlineStr">
@@ -4840,12 +4838,12 @@
       </c>
       <c r="I33" s="0" t="inlineStr">
         <is>
-          <t>BLPL GRACE</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="J33" s="0" t="inlineStr">
         <is>
-          <t>1650/2018</t>
+          <t>2291/2018</t>
         </is>
       </c>
       <c r="K33" s="0" t="inlineStr">
@@ -4872,20 +4870,20 @@
       </c>
       <c r="U33" s="0" t="inlineStr">
         <is>
-          <t>KWH687329</t>
+          <t>UL2830881</t>
         </is>
       </c>
       <c r="V33" s="0"/>
       <c r="W33" s="0" t="inlineStr">
         <is>
-          <t>2018-10081</t>
+          <t>2018-13180</t>
         </is>
       </c>
       <c r="X33" s="4" t="d">
-        <v>2018-05-29T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Y33" s="4" t="d">
-        <v>2018-06-09T00:00:00</v>
+        <v>2018-08-10T00:00:00</v>
       </c>
       <c r="Z33" s="0" t="inlineStr">
         <is>
@@ -4901,10 +4899,10 @@
         <v>0</v>
       </c>
       <c r="AC33" s="0" t="n">
-        <v>575334555</v>
+        <v>964694340</v>
       </c>
       <c r="AD33" s="0" t="n">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="AE33" s="0"/>
       <c r="AF33" s="0" t="inlineStr">
@@ -4919,11 +4917,11 @@
         <v>29</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>9005</v>
+        <v>9056</v>
       </c>
       <c r="C34" s="0" t="inlineStr">
         <is>
-          <t>MSKU6440949</t>
+          <t>PONU7777364</t>
         </is>
       </c>
       <c r="D34" s="0" t="n">
@@ -4931,7 +4929,7 @@
       </c>
       <c r="E34" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F34" s="0" t="inlineStr">
@@ -4951,12 +4949,12 @@
       </c>
       <c r="I34" s="0" t="inlineStr">
         <is>
-          <t>BRIGHT</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="J34" s="0" t="inlineStr">
         <is>
-          <t>2174/2018</t>
+          <t>2291/2018</t>
         </is>
       </c>
       <c r="K34" s="0" t="inlineStr">
@@ -4983,20 +4981,20 @@
       </c>
       <c r="U34" s="0" t="inlineStr">
         <is>
-          <t>UL1614691</t>
+          <t>UL2830878</t>
         </is>
       </c>
       <c r="V34" s="0"/>
       <c r="W34" s="0" t="inlineStr">
         <is>
-          <t>2018-12092</t>
+          <t>2018-13246</t>
         </is>
       </c>
       <c r="X34" s="4" t="d">
-        <v>2018-07-17T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Y34" s="4" t="d">
-        <v>2018-07-19T00:00:00</v>
+        <v>2018-08-11T00:00:00</v>
       </c>
       <c r="Z34" s="0" t="inlineStr">
         <is>
@@ -5012,10 +5010,10 @@
         <v>0</v>
       </c>
       <c r="AC34" s="0" t="n">
-        <v>964766879</v>
+        <v>964694340</v>
       </c>
       <c r="AD34" s="0" t="n">
-        <v>306</v>
+        <v>133</v>
       </c>
       <c r="AE34" s="0"/>
       <c r="AF34" s="0" t="inlineStr">
@@ -5030,11 +5028,11 @@
         <v>30</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>9006</v>
+        <v>9057</v>
       </c>
       <c r="C35" s="0" t="inlineStr">
         <is>
-          <t>MSKU9550235</t>
+          <t>PONU1813931</t>
         </is>
       </c>
       <c r="D35" s="0" t="n">
@@ -5042,7 +5040,7 @@
       </c>
       <c r="E35" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F35" s="0" t="inlineStr">
@@ -5062,12 +5060,12 @@
       </c>
       <c r="I35" s="0" t="inlineStr">
         <is>
-          <t>BRIGHT</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="J35" s="0" t="inlineStr">
         <is>
-          <t>2174/2018</t>
+          <t>2291/2018</t>
         </is>
       </c>
       <c r="K35" s="0" t="inlineStr">
@@ -5094,20 +5092,20 @@
       </c>
       <c r="U35" s="0" t="inlineStr">
         <is>
-          <t>UL1614692</t>
+          <t>UL2830852</t>
         </is>
       </c>
       <c r="V35" s="0"/>
       <c r="W35" s="0" t="inlineStr">
         <is>
-          <t>2018-12107</t>
+          <t>2018-13181</t>
         </is>
       </c>
       <c r="X35" s="4" t="d">
-        <v>2018-07-17T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Y35" s="4" t="d">
-        <v>2018-07-19T00:00:00</v>
+        <v>2018-08-11T00:00:00</v>
       </c>
       <c r="Z35" s="0" t="inlineStr">
         <is>
@@ -5123,10 +5121,10 @@
         <v>0</v>
       </c>
       <c r="AC35" s="0" t="n">
-        <v>964766879</v>
+        <v>964694340</v>
       </c>
       <c r="AD35" s="0" t="n">
-        <v>306</v>
+        <v>133</v>
       </c>
       <c r="AE35" s="0"/>
       <c r="AF35" s="0" t="inlineStr">
@@ -5141,15 +5139,15 @@
         <v>31</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>9007</v>
+        <v>9722</v>
       </c>
       <c r="C36" s="0" t="inlineStr">
         <is>
-          <t>GLDU0996495</t>
+          <t>MSKU5753050</t>
         </is>
       </c>
       <c r="D36" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E36" s="0" t="inlineStr">
         <is>
@@ -5173,17 +5171,17 @@
       </c>
       <c r="I36" s="0" t="inlineStr">
         <is>
-          <t>BRIGHT</t>
+          <t>CAROLINA TRADER</t>
         </is>
       </c>
       <c r="J36" s="0" t="inlineStr">
         <is>
-          <t>2174/2018</t>
+          <t>2794/2018</t>
         </is>
       </c>
       <c r="K36" s="0" t="inlineStr">
         <is>
-          <t>A A COARSE SPUN LTD</t>
+          <t>JTC CARGO INTERNATIONAL</t>
         </is>
       </c>
       <c r="L36" s="0" t="inlineStr">
@@ -5200,25 +5198,25 @@
       <c r="S36" s="0"/>
       <c r="T36" s="0" t="inlineStr">
         <is>
-          <t>RAW COTTON</t>
+          <t>SODIUM SULPHATE</t>
         </is>
       </c>
       <c r="U36" s="0" t="inlineStr">
         <is>
-          <t>UL1614690</t>
+          <t>CN8969052</t>
         </is>
       </c>
       <c r="V36" s="0"/>
       <c r="W36" s="0" t="inlineStr">
         <is>
-          <t>2018-12180</t>
+          <t>2018-15622</t>
         </is>
       </c>
       <c r="X36" s="4" t="d">
-        <v>2018-07-17T00:00:00</v>
+        <v>2018-09-17T00:00:00</v>
       </c>
       <c r="Y36" s="4" t="d">
-        <v>2018-07-20T00:00:00</v>
+        <v>2018-09-17T00:00:00</v>
       </c>
       <c r="Z36" s="0" t="inlineStr">
         <is>
@@ -5233,11 +5231,13 @@
       <c r="AB36" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC36" s="0" t="n">
-        <v>964766879</v>
+      <c r="AC36" s="0" t="inlineStr">
+        <is>
+          <t>MCB418551</t>
+        </is>
       </c>
       <c r="AD36" s="0" t="n">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="AE36" s="0"/>
       <c r="AF36" s="0" t="inlineStr">
@@ -5252,15 +5252,15 @@
         <v>32</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>9008</v>
+        <v>9723</v>
       </c>
       <c r="C37" s="0" t="inlineStr">
         <is>
-          <t>MRKU0087827</t>
+          <t>PONU2098653</t>
         </is>
       </c>
       <c r="D37" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E37" s="0" t="inlineStr">
         <is>
@@ -5284,17 +5284,17 @@
       </c>
       <c r="I37" s="0" t="inlineStr">
         <is>
-          <t>BRIGHT</t>
+          <t>CAROLINA TRADER</t>
         </is>
       </c>
       <c r="J37" s="0" t="inlineStr">
         <is>
-          <t>2174/2018</t>
+          <t>2794/2018</t>
         </is>
       </c>
       <c r="K37" s="0" t="inlineStr">
         <is>
-          <t>A A COARSE SPUN LTD</t>
+          <t>JTC CARGO INTERNATIONAL</t>
         </is>
       </c>
       <c r="L37" s="0" t="inlineStr">
@@ -5311,25 +5311,25 @@
       <c r="S37" s="0"/>
       <c r="T37" s="0" t="inlineStr">
         <is>
-          <t>RAW COTTON</t>
+          <t>SODIUM SULPHATE</t>
         </is>
       </c>
       <c r="U37" s="0" t="inlineStr">
         <is>
-          <t>UL1614693</t>
+          <t>CN8969053</t>
         </is>
       </c>
       <c r="V37" s="0"/>
       <c r="W37" s="0" t="inlineStr">
         <is>
-          <t>2018-12164</t>
+          <t>2018-15623</t>
         </is>
       </c>
       <c r="X37" s="4" t="d">
-        <v>2018-07-17T00:00:00</v>
+        <v>2018-09-17T00:00:00</v>
       </c>
       <c r="Y37" s="4" t="d">
-        <v>2018-07-20T00:00:00</v>
+        <v>2018-09-17T00:00:00</v>
       </c>
       <c r="Z37" s="0" t="inlineStr">
         <is>
@@ -5344,11 +5344,13 @@
       <c r="AB37" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC37" s="0" t="n">
-        <v>964766879</v>
+      <c r="AC37" s="0" t="inlineStr">
+        <is>
+          <t>MCB418551</t>
+        </is>
       </c>
       <c r="AD37" s="0" t="n">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="AE37" s="0"/>
       <c r="AF37" s="0" t="inlineStr">
@@ -5363,19 +5365,19 @@
         <v>33</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>9009</v>
+        <v>9724</v>
       </c>
       <c r="C38" s="0" t="inlineStr">
         <is>
-          <t>MSKU8517886</t>
+          <t>MSKU2852892</t>
         </is>
       </c>
       <c r="D38" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E38" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F38" s="0" t="inlineStr">
@@ -5395,17 +5397,17 @@
       </c>
       <c r="I38" s="0" t="inlineStr">
         <is>
-          <t>BRIGHT</t>
+          <t>CAROLINA TRADER</t>
         </is>
       </c>
       <c r="J38" s="0" t="inlineStr">
         <is>
-          <t>2174/2018</t>
+          <t>2794/2018</t>
         </is>
       </c>
       <c r="K38" s="0" t="inlineStr">
         <is>
-          <t>A A COARSE SPUN LTD</t>
+          <t>JTC CARGO INTERNATIONAL</t>
         </is>
       </c>
       <c r="L38" s="0" t="inlineStr">
@@ -5422,25 +5424,25 @@
       <c r="S38" s="0"/>
       <c r="T38" s="0" t="inlineStr">
         <is>
-          <t>RAW COTTON</t>
+          <t>SODIUM SULPHATE</t>
         </is>
       </c>
       <c r="U38" s="0" t="inlineStr">
         <is>
-          <t>UL1615420</t>
+          <t>CN8969127</t>
         </is>
       </c>
       <c r="V38" s="0"/>
       <c r="W38" s="0" t="inlineStr">
         <is>
-          <t>2018-12102</t>
+          <t>2018-15624</t>
         </is>
       </c>
       <c r="X38" s="4" t="d">
-        <v>2018-07-17T00:00:00</v>
+        <v>2018-09-17T00:00:00</v>
       </c>
       <c r="Y38" s="4" t="d">
-        <v>2018-07-19T00:00:00</v>
+        <v>2018-09-17T00:00:00</v>
       </c>
       <c r="Z38" s="0" t="inlineStr">
         <is>
@@ -5455,11 +5457,13 @@
       <c r="AB38" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC38" s="0" t="n">
-        <v>964573753</v>
+      <c r="AC38" s="0" t="inlineStr">
+        <is>
+          <t>MCB418551</t>
+        </is>
       </c>
       <c r="AD38" s="0" t="n">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="AE38" s="0"/>
       <c r="AF38" s="0" t="inlineStr">
@@ -5474,19 +5478,19 @@
         <v>34</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>9010</v>
+        <v>9725</v>
       </c>
       <c r="C39" s="0" t="inlineStr">
         <is>
-          <t>TRLU6876549</t>
+          <t>IPXU3733892</t>
         </is>
       </c>
       <c r="D39" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E39" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F39" s="0" t="inlineStr">
@@ -5506,17 +5510,17 @@
       </c>
       <c r="I39" s="0" t="inlineStr">
         <is>
-          <t>BRIGHT</t>
+          <t>CAROLINA TRADER</t>
         </is>
       </c>
       <c r="J39" s="0" t="inlineStr">
         <is>
-          <t>2174/2018</t>
+          <t>2794/2018</t>
         </is>
       </c>
       <c r="K39" s="0" t="inlineStr">
         <is>
-          <t>A A COARSE SPUN LTD</t>
+          <t>JTC CARGO INTERNATIONAL</t>
         </is>
       </c>
       <c r="L39" s="0" t="inlineStr">
@@ -5533,25 +5537,25 @@
       <c r="S39" s="0"/>
       <c r="T39" s="0" t="inlineStr">
         <is>
-          <t>RAW COTTON</t>
+          <t>SODIUM SULPHATE</t>
         </is>
       </c>
       <c r="U39" s="0" t="inlineStr">
         <is>
-          <t>UL1615419</t>
+          <t>CN8969128</t>
         </is>
       </c>
       <c r="V39" s="0"/>
       <c r="W39" s="0" t="inlineStr">
         <is>
-          <t>2018-12138</t>
+          <t>2018-15625</t>
         </is>
       </c>
       <c r="X39" s="4" t="d">
-        <v>2018-07-17T00:00:00</v>
+        <v>2018-09-17T00:00:00</v>
       </c>
       <c r="Y39" s="4" t="d">
-        <v>2018-07-19T00:00:00</v>
+        <v>2018-09-17T00:00:00</v>
       </c>
       <c r="Z39" s="0" t="inlineStr">
         <is>
@@ -5566,11 +5570,13 @@
       <c r="AB39" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC39" s="0" t="n">
-        <v>964573753</v>
+      <c r="AC39" s="0" t="inlineStr">
+        <is>
+          <t>MCB418551</t>
+        </is>
       </c>
       <c r="AD39" s="0" t="n">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="AE39" s="0"/>
       <c r="AF39" s="0" t="inlineStr">
@@ -5585,15 +5591,15 @@
         <v>35</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>9011</v>
+        <v>8829</v>
       </c>
       <c r="C40" s="0" t="inlineStr">
         <is>
-          <t>MAEU6357369</t>
+          <t>MSKU7718973</t>
         </is>
       </c>
       <c r="D40" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E40" s="0" t="inlineStr">
         <is>
@@ -5617,17 +5623,17 @@
       </c>
       <c r="I40" s="0" t="inlineStr">
         <is>
-          <t>BRIGHT</t>
+          <t>VASI SUN</t>
         </is>
       </c>
       <c r="J40" s="0" t="inlineStr">
         <is>
-          <t>2174/2018</t>
+          <t>0116/2017</t>
         </is>
       </c>
       <c r="K40" s="0" t="inlineStr">
         <is>
-          <t>A A COARSE SPUN LTD</t>
+          <t>BENGAL TRADING</t>
         </is>
       </c>
       <c r="L40" s="0" t="inlineStr">
@@ -5644,25 +5650,25 @@
       <c r="S40" s="0"/>
       <c r="T40" s="0" t="inlineStr">
         <is>
-          <t>RAW COTTON</t>
+          <t>CHICK PEAS</t>
         </is>
       </c>
       <c r="U40" s="0" t="inlineStr">
         <is>
-          <t>UL1615421</t>
+          <t>AU0512384</t>
         </is>
       </c>
       <c r="V40" s="0"/>
       <c r="W40" s="0" t="inlineStr">
         <is>
-          <t>2018-12171</t>
+          <t>2017-1136</t>
         </is>
       </c>
       <c r="X40" s="4" t="d">
-        <v>2018-07-17T00:00:00</v>
+        <v>2017-01-16T00:00:00</v>
       </c>
       <c r="Y40" s="4" t="d">
-        <v>2018-07-20T00:00:00</v>
+        <v>2017-01-17T00:00:00</v>
       </c>
       <c r="Z40" s="0" t="inlineStr">
         <is>
@@ -5678,10 +5684,10 @@
         <v>0</v>
       </c>
       <c r="AC40" s="0" t="n">
-        <v>964573753</v>
+        <v>571749290</v>
       </c>
       <c r="AD40" s="0" t="n">
-        <v>302</v>
+        <v>109</v>
       </c>
       <c r="AE40" s="0"/>
       <c r="AF40" s="0" t="inlineStr">
@@ -5696,15 +5702,15 @@
         <v>36</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>9012</v>
+        <v>8830</v>
       </c>
       <c r="C41" s="0" t="inlineStr">
         <is>
-          <t>MSKU6094337</t>
+          <t>MSKU2423244</t>
         </is>
       </c>
       <c r="D41" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E41" s="0" t="inlineStr">
         <is>
@@ -5728,17 +5734,17 @@
       </c>
       <c r="I41" s="0" t="inlineStr">
         <is>
-          <t>BRIGHT</t>
+          <t>VASI SUN</t>
         </is>
       </c>
       <c r="J41" s="0" t="inlineStr">
         <is>
-          <t>2174/2018</t>
+          <t>0116/2017</t>
         </is>
       </c>
       <c r="K41" s="0" t="inlineStr">
         <is>
-          <t>A A COARSE SPUN LTD</t>
+          <t>BENGAL TRADING</t>
         </is>
       </c>
       <c r="L41" s="0" t="inlineStr">
@@ -5755,25 +5761,25 @@
       <c r="S41" s="0"/>
       <c r="T41" s="0" t="inlineStr">
         <is>
-          <t>RAW COTTON</t>
+          <t>CHICK PEAS</t>
         </is>
       </c>
       <c r="U41" s="0" t="inlineStr">
         <is>
-          <t>UL1615417</t>
+          <t>AU0514169</t>
         </is>
       </c>
       <c r="V41" s="0"/>
       <c r="W41" s="0" t="inlineStr">
         <is>
-          <t>2018-12187</t>
+          <t>2017-1282</t>
         </is>
       </c>
       <c r="X41" s="4" t="d">
-        <v>2018-07-17T00:00:00</v>
+        <v>2017-01-16T00:00:00</v>
       </c>
       <c r="Y41" s="4" t="d">
-        <v>2018-07-23T00:00:00</v>
+        <v>2017-01-21T00:00:00</v>
       </c>
       <c r="Z41" s="0" t="inlineStr">
         <is>
@@ -5789,10 +5795,10 @@
         <v>0</v>
       </c>
       <c r="AC41" s="0" t="n">
-        <v>964573753</v>
+        <v>571749290</v>
       </c>
       <c r="AD41" s="0" t="n">
-        <v>302</v>
+        <v>109</v>
       </c>
       <c r="AE41" s="0"/>
       <c r="AF41" s="0" t="inlineStr">
@@ -5807,11 +5813,11 @@
         <v>37</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>9013</v>
+        <v>8868</v>
       </c>
       <c r="C42" s="0" t="inlineStr">
         <is>
-          <t>MSKU6509705</t>
+          <t>MSKU9163730</t>
         </is>
       </c>
       <c r="D42" s="0" t="n">
@@ -5819,7 +5825,7 @@
       </c>
       <c r="E42" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F42" s="0" t="inlineStr">
@@ -5839,12 +5845,12 @@
       </c>
       <c r="I42" s="0" t="inlineStr">
         <is>
-          <t>BRIGHT</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J42" s="0" t="inlineStr">
         <is>
-          <t>2174/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K42" s="0" t="inlineStr">
@@ -5871,20 +5877,20 @@
       </c>
       <c r="U42" s="0" t="inlineStr">
         <is>
-          <t>KWH687414</t>
+          <t>KWH687344</t>
         </is>
       </c>
       <c r="V42" s="0"/>
       <c r="W42" s="0" t="inlineStr">
         <is>
-          <t>2018-12091</t>
+          <t>2018-9476</t>
         </is>
       </c>
       <c r="X42" s="4" t="d">
-        <v>2018-07-17T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y42" s="4" t="d">
-        <v>2018-07-20T00:00:00</v>
+        <v>2018-05-30T00:00:00</v>
       </c>
       <c r="Z42" s="0" t="inlineStr">
         <is>
@@ -5900,10 +5906,10 @@
         <v>0</v>
       </c>
       <c r="AC42" s="0" t="n">
-        <v>575756665</v>
+        <v>963897980</v>
       </c>
       <c r="AD42" s="0" t="n">
-        <v>255</v>
+        <v>155</v>
       </c>
       <c r="AE42" s="0"/>
       <c r="AF42" s="0" t="inlineStr">
@@ -5918,11 +5924,11 @@
         <v>38</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>9040</v>
+        <v>8869</v>
       </c>
       <c r="C43" s="0" t="inlineStr">
         <is>
-          <t>TGHU6043898</t>
+          <t>MSKU9055669</t>
         </is>
       </c>
       <c r="D43" s="0" t="n">
@@ -5950,12 +5956,12 @@
       </c>
       <c r="I43" s="0" t="inlineStr">
         <is>
-          <t>OEL BANGLADESH</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J43" s="0" t="inlineStr">
         <is>
-          <t>2232/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K43" s="0" t="inlineStr">
@@ -5980,20 +5986,22 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="U43" s="0" t="n">
-        <v>2185060</v>
+      <c r="U43" s="0" t="inlineStr">
+        <is>
+          <t>KWH687327</t>
+        </is>
       </c>
       <c r="V43" s="0"/>
       <c r="W43" s="0" t="inlineStr">
         <is>
-          <t>2018-12875</t>
+          <t>2018-9477</t>
         </is>
       </c>
       <c r="X43" s="4" t="d">
-        <v>2018-07-30T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y43" s="4" t="d">
-        <v>2018-07-31T00:00:00</v>
+        <v>2018-05-30T00:00:00</v>
       </c>
       <c r="Z43" s="0" t="inlineStr">
         <is>
@@ -6009,10 +6017,10 @@
         <v>0</v>
       </c>
       <c r="AC43" s="0" t="n">
-        <v>964620392</v>
+        <v>963897980</v>
       </c>
       <c r="AD43" s="0" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="AE43" s="0"/>
       <c r="AF43" s="0" t="inlineStr">
@@ -6027,11 +6035,11 @@
         <v>39</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>9041</v>
+        <v>8870</v>
       </c>
       <c r="C44" s="0" t="inlineStr">
         <is>
-          <t>MSKU0637123</t>
+          <t>PONU1509889</t>
         </is>
       </c>
       <c r="D44" s="0" t="n">
@@ -6039,7 +6047,7 @@
       </c>
       <c r="E44" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F44" s="0" t="inlineStr">
@@ -6059,12 +6067,12 @@
       </c>
       <c r="I44" s="0" t="inlineStr">
         <is>
-          <t>OEL BANGLADESH</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J44" s="0" t="inlineStr">
         <is>
-          <t>2232/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K44" s="0" t="inlineStr">
@@ -6089,20 +6097,22 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="U44" s="0" t="n">
-        <v>2830816</v>
+      <c r="U44" s="0" t="inlineStr">
+        <is>
+          <t>KWH686765</t>
+        </is>
       </c>
       <c r="V44" s="0"/>
       <c r="W44" s="0" t="inlineStr">
         <is>
-          <t>2018-12868</t>
+          <t>2018-9491</t>
         </is>
       </c>
       <c r="X44" s="4" t="d">
-        <v>2018-07-30T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y44" s="4" t="d">
-        <v>2018-07-31T00:00:00</v>
+        <v>2018-05-30T00:00:00</v>
       </c>
       <c r="Z44" s="0" t="inlineStr">
         <is>
@@ -6118,10 +6128,10 @@
         <v>0</v>
       </c>
       <c r="AC44" s="0" t="n">
-        <v>964620392</v>
+        <v>963897980</v>
       </c>
       <c r="AD44" s="0" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="AE44" s="0"/>
       <c r="AF44" s="0" t="inlineStr">
@@ -6136,11 +6146,11 @@
         <v>40</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>9042</v>
+        <v>8871</v>
       </c>
       <c r="C45" s="0" t="inlineStr">
         <is>
-          <t>PONU1819272</t>
+          <t>SUDU6787150</t>
         </is>
       </c>
       <c r="D45" s="0" t="n">
@@ -6168,12 +6178,12 @@
       </c>
       <c r="I45" s="0" t="inlineStr">
         <is>
-          <t>OEL BANGLADESH</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J45" s="0" t="inlineStr">
         <is>
-          <t>2232/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K45" s="0" t="inlineStr">
@@ -6200,20 +6210,20 @@
       </c>
       <c r="U45" s="0" t="inlineStr">
         <is>
-          <t>UL2830749</t>
+          <t>KWH686903</t>
         </is>
       </c>
       <c r="V45" s="0"/>
       <c r="W45" s="0" t="inlineStr">
         <is>
-          <t>2018-12930</t>
+          <t>2018-9489</t>
         </is>
       </c>
       <c r="X45" s="4" t="d">
-        <v>2018-07-30T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y45" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-05-30T00:00:00</v>
       </c>
       <c r="Z45" s="0" t="inlineStr">
         <is>
@@ -6229,10 +6239,10 @@
         <v>0</v>
       </c>
       <c r="AC45" s="0" t="n">
-        <v>964620392</v>
+        <v>963897980</v>
       </c>
       <c r="AD45" s="0" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="AE45" s="0"/>
       <c r="AF45" s="0" t="inlineStr">
@@ -6247,11 +6257,11 @@
         <v>41</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>9043</v>
+        <v>8872</v>
       </c>
       <c r="C46" s="0" t="inlineStr">
         <is>
-          <t>CAXU9261436</t>
+          <t>MSKU0599445</t>
         </is>
       </c>
       <c r="D46" s="0" t="n">
@@ -6279,12 +6289,12 @@
       </c>
       <c r="I46" s="0" t="inlineStr">
         <is>
-          <t>OEL BANGLADESH</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J46" s="0" t="inlineStr">
         <is>
-          <t>2232/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K46" s="0" t="inlineStr">
@@ -6309,20 +6319,22 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="U46" s="0" t="n">
-        <v>4107818</v>
+      <c r="U46" s="0" t="inlineStr">
+        <is>
+          <t>KWH686830</t>
+        </is>
       </c>
       <c r="V46" s="0"/>
       <c r="W46" s="0" t="inlineStr">
         <is>
-          <t>2018-12935</t>
+          <t>2018-9490</t>
         </is>
       </c>
       <c r="X46" s="4" t="d">
-        <v>2018-07-30T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y46" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-05-30T00:00:00</v>
       </c>
       <c r="Z46" s="0" t="inlineStr">
         <is>
@@ -6338,10 +6350,10 @@
         <v>0</v>
       </c>
       <c r="AC46" s="0" t="n">
-        <v>964620392</v>
+        <v>963897980</v>
       </c>
       <c r="AD46" s="0" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="AE46" s="0"/>
       <c r="AF46" s="0" t="inlineStr">
@@ -6356,11 +6368,11 @@
         <v>42</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>9044</v>
+        <v>8873</v>
       </c>
       <c r="C47" s="0" t="inlineStr">
         <is>
-          <t>PONU8266482</t>
+          <t>MSKU8668440</t>
         </is>
       </c>
       <c r="D47" s="0" t="n">
@@ -6388,12 +6400,12 @@
       </c>
       <c r="I47" s="0" t="inlineStr">
         <is>
-          <t>OEL BANGLADESH</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J47" s="0" t="inlineStr">
         <is>
-          <t>2232/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K47" s="0" t="inlineStr">
@@ -6420,20 +6432,20 @@
       </c>
       <c r="U47" s="0" t="inlineStr">
         <is>
-          <t>UL2830749</t>
+          <t>KWH687350</t>
         </is>
       </c>
       <c r="V47" s="0"/>
       <c r="W47" s="0" t="inlineStr">
         <is>
-          <t>2018-12940</t>
+          <t>2018-9485</t>
         </is>
       </c>
       <c r="X47" s="4" t="d">
-        <v>2018-07-30T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y47" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-05-30T00:00:00</v>
       </c>
       <c r="Z47" s="0" t="inlineStr">
         <is>
@@ -6449,10 +6461,10 @@
         <v>0</v>
       </c>
       <c r="AC47" s="0" t="n">
-        <v>964620392</v>
+        <v>963897980</v>
       </c>
       <c r="AD47" s="0" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="AE47" s="0"/>
       <c r="AF47" s="0" t="inlineStr">
@@ -6467,11 +6479,11 @@
         <v>43</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>9045</v>
+        <v>8874</v>
       </c>
       <c r="C48" s="0" t="inlineStr">
         <is>
-          <t>PONU7811427</t>
+          <t>PONU1855367</t>
         </is>
       </c>
       <c r="D48" s="0" t="n">
@@ -6479,7 +6491,7 @@
       </c>
       <c r="E48" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F48" s="0" t="inlineStr">
@@ -6499,12 +6511,12 @@
       </c>
       <c r="I48" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J48" s="0" t="inlineStr">
         <is>
-          <t>2291/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K48" s="0" t="inlineStr">
@@ -6531,20 +6543,20 @@
       </c>
       <c r="U48" s="0" t="inlineStr">
         <is>
-          <t>UL2830879</t>
+          <t>KWH686929</t>
         </is>
       </c>
       <c r="V48" s="0"/>
       <c r="W48" s="0" t="inlineStr">
         <is>
-          <t>2018-12988</t>
+          <t>2018-9501</t>
         </is>
       </c>
       <c r="X48" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y48" s="4" t="d">
-        <v>2018-08-03T00:00:00</v>
+        <v>2018-05-30T00:00:00</v>
       </c>
       <c r="Z48" s="0" t="inlineStr">
         <is>
@@ -6560,10 +6572,10 @@
         <v>0</v>
       </c>
       <c r="AC48" s="0" t="n">
-        <v>964694340</v>
+        <v>963897980</v>
       </c>
       <c r="AD48" s="0" t="n">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="AE48" s="0"/>
       <c r="AF48" s="0" t="inlineStr">
@@ -6578,11 +6590,11 @@
         <v>44</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>9046</v>
+        <v>8875</v>
       </c>
       <c r="C49" s="0" t="inlineStr">
         <is>
-          <t>PONU7918251</t>
+          <t>MSKU6694310</t>
         </is>
       </c>
       <c r="D49" s="0" t="n">
@@ -6590,7 +6602,7 @@
       </c>
       <c r="E49" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F49" s="0" t="inlineStr">
@@ -6610,12 +6622,12 @@
       </c>
       <c r="I49" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J49" s="0" t="inlineStr">
         <is>
-          <t>2291/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K49" s="0" t="inlineStr">
@@ -6642,20 +6654,20 @@
       </c>
       <c r="U49" s="0" t="inlineStr">
         <is>
-          <t>UL2830857</t>
+          <t>KWH632850</t>
         </is>
       </c>
       <c r="V49" s="0"/>
       <c r="W49" s="0" t="inlineStr">
         <is>
-          <t>2018-12986</t>
+          <t>2018-9543</t>
         </is>
       </c>
       <c r="X49" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y49" s="4" t="d">
-        <v>2018-08-03T00:00:00</v>
+        <v>2018-05-31T00:00:00</v>
       </c>
       <c r="Z49" s="0" t="inlineStr">
         <is>
@@ -6671,10 +6683,10 @@
         <v>0</v>
       </c>
       <c r="AC49" s="0" t="n">
-        <v>964694340</v>
+        <v>963897980</v>
       </c>
       <c r="AD49" s="0" t="n">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="AE49" s="0"/>
       <c r="AF49" s="0" t="inlineStr">
@@ -6689,11 +6701,11 @@
         <v>45</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>9047</v>
+        <v>8876</v>
       </c>
       <c r="C50" s="0" t="inlineStr">
         <is>
-          <t>PONU1692260</t>
+          <t>MSKU6654010</t>
         </is>
       </c>
       <c r="D50" s="0" t="n">
@@ -6721,12 +6733,12 @@
       </c>
       <c r="I50" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J50" s="0" t="inlineStr">
         <is>
-          <t>2291/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K50" s="0" t="inlineStr">
@@ -6753,20 +6765,20 @@
       </c>
       <c r="U50" s="0" t="inlineStr">
         <is>
-          <t>UL2830877</t>
+          <t>KWH687345</t>
         </is>
       </c>
       <c r="V50" s="0"/>
       <c r="W50" s="0" t="inlineStr">
         <is>
-          <t>2018-12992</t>
+          <t>2018-9544</t>
         </is>
       </c>
       <c r="X50" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y50" s="4" t="d">
-        <v>2018-08-03T00:00:00</v>
+        <v>2018-05-31T00:00:00</v>
       </c>
       <c r="Z50" s="0" t="inlineStr">
         <is>
@@ -6782,10 +6794,10 @@
         <v>0</v>
       </c>
       <c r="AC50" s="0" t="n">
-        <v>964694340</v>
+        <v>963897980</v>
       </c>
       <c r="AD50" s="0" t="n">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="AE50" s="0"/>
       <c r="AF50" s="0" t="inlineStr">
@@ -6800,11 +6812,11 @@
         <v>46</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>9048</v>
+        <v>8877</v>
       </c>
       <c r="C51" s="0" t="inlineStr">
         <is>
-          <t>MSKU9609945</t>
+          <t>MSKU8000770</t>
         </is>
       </c>
       <c r="D51" s="0" t="n">
@@ -6832,12 +6844,12 @@
       </c>
       <c r="I51" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J51" s="0" t="inlineStr">
         <is>
-          <t>2291/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K51" s="0" t="inlineStr">
@@ -6864,20 +6876,20 @@
       </c>
       <c r="U51" s="0" t="inlineStr">
         <is>
-          <t>UL2830851</t>
+          <t>KWH686930</t>
         </is>
       </c>
       <c r="V51" s="0"/>
       <c r="W51" s="0" t="inlineStr">
         <is>
-          <t>2018-12991</t>
+          <t>2018-9534</t>
         </is>
       </c>
       <c r="X51" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y51" s="4" t="d">
-        <v>2018-08-03T00:00:00</v>
+        <v>2018-05-31T00:00:00</v>
       </c>
       <c r="Z51" s="0" t="inlineStr">
         <is>
@@ -6893,10 +6905,10 @@
         <v>0</v>
       </c>
       <c r="AC51" s="0" t="n">
-        <v>964694340</v>
+        <v>963897980</v>
       </c>
       <c r="AD51" s="0" t="n">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="AE51" s="0"/>
       <c r="AF51" s="0" t="inlineStr">
@@ -6911,11 +6923,11 @@
         <v>47</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>9049</v>
+        <v>8878</v>
       </c>
       <c r="C52" s="0" t="inlineStr">
         <is>
-          <t>MSKU8354454</t>
+          <t>PONU1823713</t>
         </is>
       </c>
       <c r="D52" s="0" t="n">
@@ -6923,7 +6935,7 @@
       </c>
       <c r="E52" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F52" s="0" t="inlineStr">
@@ -6943,12 +6955,12 @@
       </c>
       <c r="I52" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J52" s="0" t="inlineStr">
         <is>
-          <t>2291/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K52" s="0" t="inlineStr">
@@ -6975,20 +6987,20 @@
       </c>
       <c r="U52" s="0" t="inlineStr">
         <is>
-          <t>UL2830854</t>
+          <t>KWH687283</t>
         </is>
       </c>
       <c r="V52" s="0"/>
       <c r="W52" s="0" t="inlineStr">
         <is>
-          <t>2018-12990</t>
+          <t>2018-9500</t>
         </is>
       </c>
       <c r="X52" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y52" s="4" t="d">
-        <v>2018-08-03T00:00:00</v>
+        <v>2018-06-02T00:00:00</v>
       </c>
       <c r="Z52" s="0" t="inlineStr">
         <is>
@@ -7004,10 +7016,10 @@
         <v>0</v>
       </c>
       <c r="AC52" s="0" t="n">
-        <v>964694340</v>
+        <v>963897980</v>
       </c>
       <c r="AD52" s="0" t="n">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="AE52" s="0"/>
       <c r="AF52" s="0" t="inlineStr">
@@ -7022,11 +7034,11 @@
         <v>48</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>9050</v>
+        <v>8879</v>
       </c>
       <c r="C53" s="0" t="inlineStr">
         <is>
-          <t>PONU1894316</t>
+          <t>HASU4651075</t>
         </is>
       </c>
       <c r="D53" s="0" t="n">
@@ -7034,7 +7046,7 @@
       </c>
       <c r="E53" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F53" s="0" t="inlineStr">
@@ -7054,12 +7066,12 @@
       </c>
       <c r="I53" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J53" s="0" t="inlineStr">
         <is>
-          <t>2291/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K53" s="0" t="inlineStr">
@@ -7084,22 +7096,20 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="U53" s="0" t="inlineStr">
-        <is>
-          <t>UL2830882</t>
-        </is>
+      <c r="U53" s="0" t="n">
+        <v>686923</v>
       </c>
       <c r="V53" s="0"/>
       <c r="W53" s="0" t="inlineStr">
         <is>
-          <t>2018-12995</t>
+          <t>2018-9671</t>
         </is>
       </c>
       <c r="X53" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y53" s="4" t="d">
-        <v>2018-08-03T00:00:00</v>
+        <v>2018-06-02T00:00:00</v>
       </c>
       <c r="Z53" s="0" t="inlineStr">
         <is>
@@ -7115,10 +7125,10 @@
         <v>0</v>
       </c>
       <c r="AC53" s="0" t="n">
-        <v>964694340</v>
+        <v>963897980</v>
       </c>
       <c r="AD53" s="0" t="n">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="AE53" s="0"/>
       <c r="AF53" s="0" t="inlineStr">
@@ -7133,11 +7143,11 @@
         <v>49</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>9051</v>
+        <v>8880</v>
       </c>
       <c r="C54" s="0" t="inlineStr">
         <is>
-          <t>MSKU9252694</t>
+          <t>PONU1438403</t>
         </is>
       </c>
       <c r="D54" s="0" t="n">
@@ -7145,7 +7155,7 @@
       </c>
       <c r="E54" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F54" s="0" t="inlineStr">
@@ -7165,12 +7175,12 @@
       </c>
       <c r="I54" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J54" s="0" t="inlineStr">
         <is>
-          <t>2291/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K54" s="0" t="inlineStr">
@@ -7197,20 +7207,20 @@
       </c>
       <c r="U54" s="0" t="inlineStr">
         <is>
-          <t>UL2830875</t>
+          <t>KWH687276</t>
         </is>
       </c>
       <c r="V54" s="0"/>
       <c r="W54" s="0" t="inlineStr">
         <is>
-          <t>2018-12998</t>
+          <t>2018-9672</t>
         </is>
       </c>
       <c r="X54" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y54" s="4" t="d">
-        <v>2018-08-03T00:00:00</v>
+        <v>2018-06-02T00:00:00</v>
       </c>
       <c r="Z54" s="0" t="inlineStr">
         <is>
@@ -7226,10 +7236,10 @@
         <v>0</v>
       </c>
       <c r="AC54" s="0" t="n">
-        <v>964694340</v>
+        <v>963897980</v>
       </c>
       <c r="AD54" s="0" t="n">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="AE54" s="0"/>
       <c r="AF54" s="0" t="inlineStr">
@@ -7244,11 +7254,11 @@
         <v>50</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>9052</v>
+        <v>8881</v>
       </c>
       <c r="C55" s="0" t="inlineStr">
         <is>
-          <t>MSKU9470931</t>
+          <t>MSKU6316727</t>
         </is>
       </c>
       <c r="D55" s="0" t="n">
@@ -7256,7 +7266,7 @@
       </c>
       <c r="E55" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F55" s="0" t="inlineStr">
@@ -7276,12 +7286,12 @@
       </c>
       <c r="I55" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J55" s="0" t="inlineStr">
         <is>
-          <t>2291/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K55" s="0" t="inlineStr">
@@ -7308,20 +7318,20 @@
       </c>
       <c r="U55" s="0" t="inlineStr">
         <is>
-          <t>UL2830855</t>
+          <t>UL2916156</t>
         </is>
       </c>
       <c r="V55" s="0"/>
       <c r="W55" s="0" t="inlineStr">
         <is>
-          <t>2018-12999</t>
+          <t>2018-9673</t>
         </is>
       </c>
       <c r="X55" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y55" s="4" t="d">
-        <v>2018-08-03T00:00:00</v>
+        <v>2018-06-02T00:00:00</v>
       </c>
       <c r="Z55" s="0" t="inlineStr">
         <is>
@@ -7337,10 +7347,10 @@
         <v>0</v>
       </c>
       <c r="AC55" s="0" t="n">
-        <v>964694340</v>
+        <v>963897980</v>
       </c>
       <c r="AD55" s="0" t="n">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="AE55" s="0"/>
       <c r="AF55" s="0" t="inlineStr">
@@ -7355,11 +7365,11 @@
         <v>51</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>9053</v>
+        <v>8882</v>
       </c>
       <c r="C56" s="0" t="inlineStr">
         <is>
-          <t>MSKU8752592</t>
+          <t>MAEU6360629</t>
         </is>
       </c>
       <c r="D56" s="0" t="n">
@@ -7367,7 +7377,7 @@
       </c>
       <c r="E56" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F56" s="0" t="inlineStr">
@@ -7387,12 +7397,12 @@
       </c>
       <c r="I56" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J56" s="0" t="inlineStr">
         <is>
-          <t>2291/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K56" s="0" t="inlineStr">
@@ -7419,20 +7429,20 @@
       </c>
       <c r="U56" s="0" t="inlineStr">
         <is>
-          <t>UL2830880</t>
+          <t>KWH687285</t>
         </is>
       </c>
       <c r="V56" s="0"/>
       <c r="W56" s="0" t="inlineStr">
         <is>
-          <t>2018-12997</t>
+          <t>2018-9574</t>
         </is>
       </c>
       <c r="X56" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y56" s="4" t="d">
-        <v>2018-08-03T00:00:00</v>
+        <v>2018-06-02T00:00:00</v>
       </c>
       <c r="Z56" s="0" t="inlineStr">
         <is>
@@ -7448,10 +7458,10 @@
         <v>0</v>
       </c>
       <c r="AC56" s="0" t="n">
-        <v>964694340</v>
+        <v>963897980</v>
       </c>
       <c r="AD56" s="0" t="n">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="AE56" s="0"/>
       <c r="AF56" s="0" t="inlineStr">
@@ -7466,11 +7476,11 @@
         <v>52</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>9054</v>
+        <v>8883</v>
       </c>
       <c r="C57" s="0" t="inlineStr">
         <is>
-          <t>MIEU3069581</t>
+          <t>PONU1484707</t>
         </is>
       </c>
       <c r="D57" s="0" t="n">
@@ -7478,7 +7488,7 @@
       </c>
       <c r="E57" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F57" s="0" t="inlineStr">
@@ -7498,12 +7508,12 @@
       </c>
       <c r="I57" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J57" s="0" t="inlineStr">
         <is>
-          <t>2291/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K57" s="0" t="inlineStr">
@@ -7530,20 +7540,20 @@
       </c>
       <c r="U57" s="0" t="inlineStr">
         <is>
-          <t>UL2830853</t>
+          <t>KWH687286</t>
         </is>
       </c>
       <c r="V57" s="0"/>
       <c r="W57" s="0" t="inlineStr">
         <is>
-          <t>2018-13084</t>
+          <t>2018-9679</t>
         </is>
       </c>
       <c r="X57" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y57" s="4" t="d">
-        <v>2018-08-04T00:00:00</v>
+        <v>2018-06-02T00:00:00</v>
       </c>
       <c r="Z57" s="0" t="inlineStr">
         <is>
@@ -7559,10 +7569,10 @@
         <v>0</v>
       </c>
       <c r="AC57" s="0" t="n">
-        <v>964694340</v>
+        <v>963897980</v>
       </c>
       <c r="AD57" s="0" t="n">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="AE57" s="0"/>
       <c r="AF57" s="0" t="inlineStr">
@@ -7577,11 +7587,11 @@
         <v>53</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>9055</v>
+        <v>8884</v>
       </c>
       <c r="C58" s="0" t="inlineStr">
         <is>
-          <t>MSKU6874333</t>
+          <t>MRKU3419530</t>
         </is>
       </c>
       <c r="D58" s="0" t="n">
@@ -7589,7 +7599,7 @@
       </c>
       <c r="E58" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F58" s="0" t="inlineStr">
@@ -7609,12 +7619,12 @@
       </c>
       <c r="I58" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J58" s="0" t="inlineStr">
         <is>
-          <t>2291/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K58" s="0" t="inlineStr">
@@ -7639,22 +7649,20 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="U58" s="0" t="inlineStr">
-        <is>
-          <t>UL2830881</t>
-        </is>
+      <c r="U58" s="0" t="n">
+        <v>1098426</v>
       </c>
       <c r="V58" s="0"/>
       <c r="W58" s="0" t="inlineStr">
         <is>
-          <t>2018-13180</t>
+          <t>2018-9632</t>
         </is>
       </c>
       <c r="X58" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y58" s="4" t="d">
-        <v>2018-08-10T00:00:00</v>
+        <v>2018-06-03T00:00:00</v>
       </c>
       <c r="Z58" s="0" t="inlineStr">
         <is>
@@ -7670,10 +7678,10 @@
         <v>0</v>
       </c>
       <c r="AC58" s="0" t="n">
-        <v>964694340</v>
+        <v>963897980</v>
       </c>
       <c r="AD58" s="0" t="n">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="AE58" s="0"/>
       <c r="AF58" s="0" t="inlineStr">
@@ -7688,11 +7696,11 @@
         <v>54</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>9056</v>
+        <v>8885</v>
       </c>
       <c r="C59" s="0" t="inlineStr">
         <is>
-          <t>PONU7777364</t>
+          <t>PONU7575743</t>
         </is>
       </c>
       <c r="D59" s="0" t="n">
@@ -7720,12 +7728,12 @@
       </c>
       <c r="I59" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J59" s="0" t="inlineStr">
         <is>
-          <t>2291/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K59" s="0" t="inlineStr">
@@ -7752,20 +7760,20 @@
       </c>
       <c r="U59" s="0" t="inlineStr">
         <is>
-          <t>UL2830878</t>
+          <t>KWH686922</t>
         </is>
       </c>
       <c r="V59" s="0"/>
       <c r="W59" s="0" t="inlineStr">
         <is>
-          <t>2018-13246</t>
+          <t>2018-9506</t>
         </is>
       </c>
       <c r="X59" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y59" s="4" t="d">
-        <v>2018-08-11T00:00:00</v>
+        <v>2018-06-04T00:00:00</v>
       </c>
       <c r="Z59" s="0" t="inlineStr">
         <is>
@@ -7781,10 +7789,10 @@
         <v>0</v>
       </c>
       <c r="AC59" s="0" t="n">
-        <v>964694340</v>
+        <v>963897980</v>
       </c>
       <c r="AD59" s="0" t="n">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="AE59" s="0"/>
       <c r="AF59" s="0" t="inlineStr">
@@ -7799,11 +7807,11 @@
         <v>55</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>9057</v>
+        <v>8886</v>
       </c>
       <c r="C60" s="0" t="inlineStr">
         <is>
-          <t>PONU1813931</t>
+          <t>TCLU5436696</t>
         </is>
       </c>
       <c r="D60" s="0" t="n">
@@ -7811,7 +7819,7 @@
       </c>
       <c r="E60" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F60" s="0" t="inlineStr">
@@ -7831,12 +7839,12 @@
       </c>
       <c r="I60" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J60" s="0" t="inlineStr">
         <is>
-          <t>2291/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K60" s="0" t="inlineStr">
@@ -7863,20 +7871,20 @@
       </c>
       <c r="U60" s="0" t="inlineStr">
         <is>
-          <t>UL2830852</t>
+          <t>KWH687295</t>
         </is>
       </c>
       <c r="V60" s="0"/>
       <c r="W60" s="0" t="inlineStr">
         <is>
-          <t>2018-13181</t>
+          <t>2018-9736</t>
         </is>
       </c>
       <c r="X60" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y60" s="4" t="d">
-        <v>2018-08-11T00:00:00</v>
+        <v>2018-06-04T00:00:00</v>
       </c>
       <c r="Z60" s="0" t="inlineStr">
         <is>
@@ -7892,10 +7900,10 @@
         <v>0</v>
       </c>
       <c r="AC60" s="0" t="n">
-        <v>964694340</v>
+        <v>963897980</v>
       </c>
       <c r="AD60" s="0" t="n">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="AE60" s="0"/>
       <c r="AF60" s="0" t="inlineStr">
@@ -7910,15 +7918,15 @@
         <v>56</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>9722</v>
+        <v>8887</v>
       </c>
       <c r="C61" s="0" t="inlineStr">
         <is>
-          <t>MSKU5753050</t>
+          <t>MSKU6253948</t>
         </is>
       </c>
       <c r="D61" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E61" s="0" t="inlineStr">
         <is>
@@ -7942,17 +7950,17 @@
       </c>
       <c r="I61" s="0" t="inlineStr">
         <is>
-          <t>CAROLINA TRADER</t>
+          <t>BLPL GRACE</t>
         </is>
       </c>
       <c r="J61" s="0" t="inlineStr">
         <is>
-          <t>2794/2018</t>
+          <t>1650/2018</t>
         </is>
       </c>
       <c r="K61" s="0" t="inlineStr">
         <is>
-          <t>JTC CARGO INTERNATIONAL</t>
+          <t>A A COARSE SPUN LTD</t>
         </is>
       </c>
       <c r="L61" s="0" t="inlineStr">
@@ -7969,25 +7977,25 @@
       <c r="S61" s="0"/>
       <c r="T61" s="0" t="inlineStr">
         <is>
-          <t>SODIUM SULPHATE</t>
+          <t>RAW COTTON</t>
         </is>
       </c>
       <c r="U61" s="0" t="inlineStr">
         <is>
-          <t>CN8969052</t>
+          <t>KWH686907</t>
         </is>
       </c>
       <c r="V61" s="0"/>
       <c r="W61" s="0" t="inlineStr">
         <is>
-          <t>2018-15622</t>
+          <t>2018-9531</t>
         </is>
       </c>
       <c r="X61" s="4" t="d">
-        <v>2018-09-17T00:00:00</v>
+        <v>2018-05-29T00:00:00</v>
       </c>
       <c r="Y61" s="4" t="d">
-        <v>2018-09-17T00:00:00</v>
+        <v>2018-05-31T00:00:00</v>
       </c>
       <c r="Z61" s="0" t="inlineStr">
         <is>
@@ -8002,13 +8010,11 @@
       <c r="AB61" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC61" s="0" t="inlineStr">
-        <is>
-          <t>MCB418551</t>
-        </is>
+      <c r="AC61" s="0" t="n">
+        <v>575334555</v>
       </c>
       <c r="AD61" s="0" t="n">
-        <v>278</v>
+        <v>174</v>
       </c>
       <c r="AE61" s="0"/>
       <c r="AF61" s="0" t="inlineStr">
@@ -8023,15 +8029,15 @@
         <v>57</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>9723</v>
+        <v>8888</v>
       </c>
       <c r="C62" s="0" t="inlineStr">
         <is>
-          <t>PONU2098653</t>
+          <t>MSKU6120061</t>
         </is>
       </c>
       <c r="D62" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E62" s="0" t="inlineStr">
         <is>
@@ -8055,17 +8061,17 @@
       </c>
       <c r="I62" s="0" t="inlineStr">
         <is>
-          <t>CAROLINA TRADER</t>
+          <t>BLPL GRACE</t>
         </is>
       </c>
       <c r="J62" s="0" t="inlineStr">
         <is>
-          <t>2794/2018</t>
+          <t>1650/2018</t>
         </is>
       </c>
       <c r="K62" s="0" t="inlineStr">
         <is>
-          <t>JTC CARGO INTERNATIONAL</t>
+          <t>A A COARSE SPUN LTD</t>
         </is>
       </c>
       <c r="L62" s="0" t="inlineStr">
@@ -8082,25 +8088,25 @@
       <c r="S62" s="0"/>
       <c r="T62" s="0" t="inlineStr">
         <is>
-          <t>SODIUM SULPHATE</t>
+          <t>RAW COTTON</t>
         </is>
       </c>
       <c r="U62" s="0" t="inlineStr">
         <is>
-          <t>CN8969053</t>
+          <t>KWH687320</t>
         </is>
       </c>
       <c r="V62" s="0"/>
       <c r="W62" s="0" t="inlineStr">
         <is>
-          <t>2018-15623</t>
+          <t>2018-9532</t>
         </is>
       </c>
       <c r="X62" s="4" t="d">
-        <v>2018-09-17T00:00:00</v>
+        <v>2018-05-29T00:00:00</v>
       </c>
       <c r="Y62" s="4" t="d">
-        <v>2018-09-17T00:00:00</v>
+        <v>2018-05-31T00:00:00</v>
       </c>
       <c r="Z62" s="0" t="inlineStr">
         <is>
@@ -8115,13 +8121,11 @@
       <c r="AB62" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC62" s="0" t="inlineStr">
-        <is>
-          <t>MCB418551</t>
-        </is>
+      <c r="AC62" s="0" t="n">
+        <v>575334555</v>
       </c>
       <c r="AD62" s="0" t="n">
-        <v>278</v>
+        <v>174</v>
       </c>
       <c r="AE62" s="0"/>
       <c r="AF62" s="0" t="inlineStr">
@@ -8136,19 +8140,19 @@
         <v>58</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>9724</v>
+        <v>8889</v>
       </c>
       <c r="C63" s="0" t="inlineStr">
         <is>
-          <t>MSKU2852892</t>
+          <t>PONU7330756</t>
         </is>
       </c>
       <c r="D63" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E63" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F63" s="0" t="inlineStr">
@@ -8168,17 +8172,17 @@
       </c>
       <c r="I63" s="0" t="inlineStr">
         <is>
-          <t>CAROLINA TRADER</t>
+          <t>BLPL GRACE</t>
         </is>
       </c>
       <c r="J63" s="0" t="inlineStr">
         <is>
-          <t>2794/2018</t>
+          <t>1650/2018</t>
         </is>
       </c>
       <c r="K63" s="0" t="inlineStr">
         <is>
-          <t>JTC CARGO INTERNATIONAL</t>
+          <t>A A COARSE SPUN LTD</t>
         </is>
       </c>
       <c r="L63" s="0" t="inlineStr">
@@ -8195,25 +8199,25 @@
       <c r="S63" s="0"/>
       <c r="T63" s="0" t="inlineStr">
         <is>
-          <t>SODIUM SULPHATE</t>
+          <t>RAW COTTON</t>
         </is>
       </c>
       <c r="U63" s="0" t="inlineStr">
         <is>
-          <t>CN8969127</t>
+          <t>KWH687322</t>
         </is>
       </c>
       <c r="V63" s="0"/>
       <c r="W63" s="0" t="inlineStr">
         <is>
-          <t>2018-15624</t>
+          <t>2018-9693</t>
         </is>
       </c>
       <c r="X63" s="4" t="d">
-        <v>2018-09-17T00:00:00</v>
+        <v>2018-05-29T00:00:00</v>
       </c>
       <c r="Y63" s="4" t="d">
-        <v>2018-09-17T00:00:00</v>
+        <v>2018-06-03T00:00:00</v>
       </c>
       <c r="Z63" s="0" t="inlineStr">
         <is>
@@ -8228,13 +8232,11 @@
       <c r="AB63" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC63" s="0" t="inlineStr">
-        <is>
-          <t>MCB418551</t>
-        </is>
+      <c r="AC63" s="0" t="n">
+        <v>575334555</v>
       </c>
       <c r="AD63" s="0" t="n">
-        <v>278</v>
+        <v>174</v>
       </c>
       <c r="AE63" s="0"/>
       <c r="AF63" s="0" t="inlineStr">
@@ -8249,19 +8251,19 @@
         <v>59</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>9725</v>
+        <v>8890</v>
       </c>
       <c r="C64" s="0" t="inlineStr">
         <is>
-          <t>IPXU3733892</t>
+          <t>SUDU8595563</t>
         </is>
       </c>
       <c r="D64" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E64" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F64" s="0" t="inlineStr">
@@ -8281,17 +8283,17 @@
       </c>
       <c r="I64" s="0" t="inlineStr">
         <is>
-          <t>CAROLINA TRADER</t>
+          <t>BLPL GRACE</t>
         </is>
       </c>
       <c r="J64" s="0" t="inlineStr">
         <is>
-          <t>2794/2018</t>
+          <t>1650/2018</t>
         </is>
       </c>
       <c r="K64" s="0" t="inlineStr">
         <is>
-          <t>JTC CARGO INTERNATIONAL</t>
+          <t>A A COARSE SPUN LTD</t>
         </is>
       </c>
       <c r="L64" s="0" t="inlineStr">
@@ -8308,25 +8310,25 @@
       <c r="S64" s="0"/>
       <c r="T64" s="0" t="inlineStr">
         <is>
-          <t>SODIUM SULPHATE</t>
+          <t>RAW COTTON</t>
         </is>
       </c>
       <c r="U64" s="0" t="inlineStr">
         <is>
-          <t>CN8969128</t>
+          <t>KWH686925</t>
         </is>
       </c>
       <c r="V64" s="0"/>
       <c r="W64" s="0" t="inlineStr">
         <is>
-          <t>2018-15625</t>
+          <t>2018-9704</t>
         </is>
       </c>
       <c r="X64" s="4" t="d">
-        <v>2018-09-17T00:00:00</v>
+        <v>2018-05-29T00:00:00</v>
       </c>
       <c r="Y64" s="4" t="d">
-        <v>2018-09-17T00:00:00</v>
+        <v>2018-06-03T00:00:00</v>
       </c>
       <c r="Z64" s="0" t="inlineStr">
         <is>
@@ -8341,13 +8343,11 @@
       <c r="AB64" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC64" s="0" t="inlineStr">
-        <is>
-          <t>MCB418551</t>
-        </is>
+      <c r="AC64" s="0" t="n">
+        <v>575334555</v>
       </c>
       <c r="AD64" s="0" t="n">
-        <v>278</v>
+        <v>174</v>
       </c>
       <c r="AE64" s="0"/>
       <c r="AF64" s="0" t="inlineStr">
@@ -8679,7 +8679,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:24</t>
+          <t>Total number of containers:24</t>
         </is>
       </c>
     </row>

--- a/reports/_MBL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_2_.xlsx
+++ b/reports/_MBL_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_2_.xlsx
@@ -1815,15 +1815,15 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>8891</v>
+        <v>8829</v>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>MRKU0258961</t>
+          <t>MSKU7718973</t>
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
@@ -1847,17 +1847,17 @@
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>BLPL GRACE</t>
+          <t>VASI SUN</t>
         </is>
       </c>
       <c r="J6" s="0" t="inlineStr">
         <is>
-          <t>1650/2018</t>
+          <t>0116/2017</t>
         </is>
       </c>
       <c r="K6" s="0" t="inlineStr">
         <is>
-          <t>A A COARSE SPUN LTD</t>
+          <t>BENGAL TRADING</t>
         </is>
       </c>
       <c r="L6" s="0" t="inlineStr">
@@ -1874,25 +1874,25 @@
       <c r="S6" s="0"/>
       <c r="T6" s="0" t="inlineStr">
         <is>
-          <t>RAW COTTON</t>
+          <t>CHICK PEAS</t>
         </is>
       </c>
       <c r="U6" s="0" t="inlineStr">
         <is>
-          <t>KWH686828</t>
+          <t>AU0512384</t>
         </is>
       </c>
       <c r="V6" s="0"/>
       <c r="W6" s="0" t="inlineStr">
         <is>
-          <t>2018-9955</t>
+          <t>2017-1136</t>
         </is>
       </c>
       <c r="X6" s="4" t="d">
-        <v>2018-05-29T00:00:00</v>
+        <v>2017-01-16T00:00:00</v>
       </c>
       <c r="Y6" s="4" t="d">
-        <v>2018-06-07T00:00:00</v>
+        <v>2017-01-17T00:00:00</v>
       </c>
       <c r="Z6" s="0" t="inlineStr">
         <is>
@@ -1908,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="AC6" s="0" t="n">
-        <v>575334555</v>
+        <v>571749290</v>
       </c>
       <c r="AD6" s="0" t="n">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="AE6" s="0"/>
       <c r="AF6" s="0" t="inlineStr">
@@ -1926,15 +1926,15 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>8892</v>
+        <v>8830</v>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>MRKU0243200</t>
+          <t>MSKU2423244</t>
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
@@ -1958,17 +1958,17 @@
       </c>
       <c r="I7" s="0" t="inlineStr">
         <is>
-          <t>BLPL GRACE</t>
+          <t>VASI SUN</t>
         </is>
       </c>
       <c r="J7" s="0" t="inlineStr">
         <is>
-          <t>1650/2018</t>
+          <t>0116/2017</t>
         </is>
       </c>
       <c r="K7" s="0" t="inlineStr">
         <is>
-          <t>A A COARSE SPUN LTD</t>
+          <t>BENGAL TRADING</t>
         </is>
       </c>
       <c r="L7" s="0" t="inlineStr">
@@ -1985,25 +1985,25 @@
       <c r="S7" s="0"/>
       <c r="T7" s="0" t="inlineStr">
         <is>
-          <t>RAW COTTON</t>
+          <t>CHICK PEAS</t>
         </is>
       </c>
       <c r="U7" s="0" t="inlineStr">
         <is>
-          <t>KWH686758</t>
+          <t>AU0514169</t>
         </is>
       </c>
       <c r="V7" s="0"/>
       <c r="W7" s="0" t="inlineStr">
         <is>
-          <t>2018-9950</t>
+          <t>2017-1282</t>
         </is>
       </c>
       <c r="X7" s="4" t="d">
-        <v>2018-05-29T00:00:00</v>
+        <v>2017-01-16T00:00:00</v>
       </c>
       <c r="Y7" s="4" t="d">
-        <v>2018-06-07T00:00:00</v>
+        <v>2017-01-21T00:00:00</v>
       </c>
       <c r="Z7" s="0" t="inlineStr">
         <is>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="AC7" s="0" t="n">
-        <v>575334555</v>
+        <v>571749290</v>
       </c>
       <c r="AD7" s="0" t="n">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="AE7" s="0"/>
       <c r="AF7" s="0" t="inlineStr">
@@ -2037,11 +2037,11 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>8893</v>
+        <v>8868</v>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>SUDU8785619</t>
+          <t>MSKU9163730</t>
         </is>
       </c>
       <c r="D8" s="0" t="n">
@@ -2069,12 +2069,12 @@
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>BLPL GRACE</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J8" s="0" t="inlineStr">
         <is>
-          <t>1650/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K8" s="0" t="inlineStr">
@@ -2101,20 +2101,20 @@
       </c>
       <c r="U8" s="0" t="inlineStr">
         <is>
-          <t>KWH687329</t>
+          <t>KWH687344</t>
         </is>
       </c>
       <c r="V8" s="0"/>
       <c r="W8" s="0" t="inlineStr">
         <is>
-          <t>2018-10081</t>
+          <t>2018-9476</t>
         </is>
       </c>
       <c r="X8" s="4" t="d">
-        <v>2018-05-29T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y8" s="4" t="d">
-        <v>2018-06-09T00:00:00</v>
+        <v>2018-05-30T00:00:00</v>
       </c>
       <c r="Z8" s="0" t="inlineStr">
         <is>
@@ -2130,10 +2130,10 @@
         <v>0</v>
       </c>
       <c r="AC8" s="0" t="n">
-        <v>575334555</v>
+        <v>963897980</v>
       </c>
       <c r="AD8" s="0" t="n">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="AE8" s="0"/>
       <c r="AF8" s="0" t="inlineStr">
@@ -2148,11 +2148,11 @@
         <v>4</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>9005</v>
+        <v>8869</v>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>MSKU6440949</t>
+          <t>MSKU9055669</t>
         </is>
       </c>
       <c r="D9" s="0" t="n">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
@@ -2180,12 +2180,12 @@
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>BRIGHT</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J9" s="0" t="inlineStr">
         <is>
-          <t>2174/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K9" s="0" t="inlineStr">
@@ -2212,20 +2212,20 @@
       </c>
       <c r="U9" s="0" t="inlineStr">
         <is>
-          <t>UL1614691</t>
+          <t>KWH687327</t>
         </is>
       </c>
       <c r="V9" s="0"/>
       <c r="W9" s="0" t="inlineStr">
         <is>
-          <t>2018-12092</t>
+          <t>2018-9477</t>
         </is>
       </c>
       <c r="X9" s="4" t="d">
-        <v>2018-07-17T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y9" s="4" t="d">
-        <v>2018-07-19T00:00:00</v>
+        <v>2018-05-30T00:00:00</v>
       </c>
       <c r="Z9" s="0" t="inlineStr">
         <is>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="AC9" s="0" t="n">
-        <v>964766879</v>
+        <v>963897980</v>
       </c>
       <c r="AD9" s="0" t="n">
-        <v>306</v>
+        <v>155</v>
       </c>
       <c r="AE9" s="0"/>
       <c r="AF9" s="0" t="inlineStr">
@@ -2259,11 +2259,11 @@
         <v>5</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>9006</v>
+        <v>8870</v>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>MSKU9550235</t>
+          <t>PONU1509889</t>
         </is>
       </c>
       <c r="D10" s="0" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F10" s="0" t="inlineStr">
@@ -2291,12 +2291,12 @@
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>BRIGHT</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J10" s="0" t="inlineStr">
         <is>
-          <t>2174/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K10" s="0" t="inlineStr">
@@ -2323,20 +2323,20 @@
       </c>
       <c r="U10" s="0" t="inlineStr">
         <is>
-          <t>UL1614692</t>
+          <t>KWH686765</t>
         </is>
       </c>
       <c r="V10" s="0"/>
       <c r="W10" s="0" t="inlineStr">
         <is>
-          <t>2018-12107</t>
+          <t>2018-9491</t>
         </is>
       </c>
       <c r="X10" s="4" t="d">
-        <v>2018-07-17T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y10" s="4" t="d">
-        <v>2018-07-19T00:00:00</v>
+        <v>2018-05-30T00:00:00</v>
       </c>
       <c r="Z10" s="0" t="inlineStr">
         <is>
@@ -2352,10 +2352,10 @@
         <v>0</v>
       </c>
       <c r="AC10" s="0" t="n">
-        <v>964766879</v>
+        <v>963897980</v>
       </c>
       <c r="AD10" s="0" t="n">
-        <v>306</v>
+        <v>155</v>
       </c>
       <c r="AE10" s="0"/>
       <c r="AF10" s="0" t="inlineStr">
@@ -2370,11 +2370,11 @@
         <v>6</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>9007</v>
+        <v>8871</v>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>GLDU0996495</t>
+          <t>SUDU6787150</t>
         </is>
       </c>
       <c r="D11" s="0" t="n">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="I11" s="0" t="inlineStr">
         <is>
-          <t>BRIGHT</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J11" s="0" t="inlineStr">
         <is>
-          <t>2174/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K11" s="0" t="inlineStr">
@@ -2434,20 +2434,20 @@
       </c>
       <c r="U11" s="0" t="inlineStr">
         <is>
-          <t>UL1614690</t>
+          <t>KWH686903</t>
         </is>
       </c>
       <c r="V11" s="0"/>
       <c r="W11" s="0" t="inlineStr">
         <is>
-          <t>2018-12180</t>
+          <t>2018-9489</t>
         </is>
       </c>
       <c r="X11" s="4" t="d">
-        <v>2018-07-17T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y11" s="4" t="d">
-        <v>2018-07-20T00:00:00</v>
+        <v>2018-05-30T00:00:00</v>
       </c>
       <c r="Z11" s="0" t="inlineStr">
         <is>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="AC11" s="0" t="n">
-        <v>964766879</v>
+        <v>963897980</v>
       </c>
       <c r="AD11" s="0" t="n">
-        <v>306</v>
+        <v>155</v>
       </c>
       <c r="AE11" s="0"/>
       <c r="AF11" s="0" t="inlineStr">
@@ -2481,11 +2481,11 @@
         <v>7</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>9008</v>
+        <v>8872</v>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>MRKU0087827</t>
+          <t>MSKU0599445</t>
         </is>
       </c>
       <c r="D12" s="0" t="n">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F12" s="0" t="inlineStr">
@@ -2513,12 +2513,12 @@
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>BRIGHT</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J12" s="0" t="inlineStr">
         <is>
-          <t>2174/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K12" s="0" t="inlineStr">
@@ -2545,20 +2545,20 @@
       </c>
       <c r="U12" s="0" t="inlineStr">
         <is>
-          <t>UL1614693</t>
+          <t>KWH686830</t>
         </is>
       </c>
       <c r="V12" s="0"/>
       <c r="W12" s="0" t="inlineStr">
         <is>
-          <t>2018-12164</t>
+          <t>2018-9490</t>
         </is>
       </c>
       <c r="X12" s="4" t="d">
-        <v>2018-07-17T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y12" s="4" t="d">
-        <v>2018-07-20T00:00:00</v>
+        <v>2018-05-30T00:00:00</v>
       </c>
       <c r="Z12" s="0" t="inlineStr">
         <is>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="AC12" s="0" t="n">
-        <v>964766879</v>
+        <v>963897980</v>
       </c>
       <c r="AD12" s="0" t="n">
-        <v>306</v>
+        <v>155</v>
       </c>
       <c r="AE12" s="0"/>
       <c r="AF12" s="0" t="inlineStr">
@@ -2592,11 +2592,11 @@
         <v>8</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>9009</v>
+        <v>8873</v>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>MSKU8517886</t>
+          <t>MSKU8668440</t>
         </is>
       </c>
       <c r="D13" s="0" t="n">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="I13" s="0" t="inlineStr">
         <is>
-          <t>BRIGHT</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J13" s="0" t="inlineStr">
         <is>
-          <t>2174/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K13" s="0" t="inlineStr">
@@ -2656,20 +2656,20 @@
       </c>
       <c r="U13" s="0" t="inlineStr">
         <is>
-          <t>UL1615420</t>
+          <t>KWH687350</t>
         </is>
       </c>
       <c r="V13" s="0"/>
       <c r="W13" s="0" t="inlineStr">
         <is>
-          <t>2018-12102</t>
+          <t>2018-9485</t>
         </is>
       </c>
       <c r="X13" s="4" t="d">
-        <v>2018-07-17T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y13" s="4" t="d">
-        <v>2018-07-19T00:00:00</v>
+        <v>2018-05-30T00:00:00</v>
       </c>
       <c r="Z13" s="0" t="inlineStr">
         <is>
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="AC13" s="0" t="n">
-        <v>964573753</v>
+        <v>963897980</v>
       </c>
       <c r="AD13" s="0" t="n">
-        <v>302</v>
+        <v>155</v>
       </c>
       <c r="AE13" s="0"/>
       <c r="AF13" s="0" t="inlineStr">
@@ -2703,11 +2703,11 @@
         <v>9</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>9010</v>
+        <v>8874</v>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>TRLU6876549</t>
+          <t>PONU1855367</t>
         </is>
       </c>
       <c r="D14" s="0" t="n">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F14" s="0" t="inlineStr">
@@ -2735,12 +2735,12 @@
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>BRIGHT</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J14" s="0" t="inlineStr">
         <is>
-          <t>2174/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K14" s="0" t="inlineStr">
@@ -2767,20 +2767,20 @@
       </c>
       <c r="U14" s="0" t="inlineStr">
         <is>
-          <t>UL1615419</t>
+          <t>KWH686929</t>
         </is>
       </c>
       <c r="V14" s="0"/>
       <c r="W14" s="0" t="inlineStr">
         <is>
-          <t>2018-12138</t>
+          <t>2018-9501</t>
         </is>
       </c>
       <c r="X14" s="4" t="d">
-        <v>2018-07-17T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y14" s="4" t="d">
-        <v>2018-07-19T00:00:00</v>
+        <v>2018-05-30T00:00:00</v>
       </c>
       <c r="Z14" s="0" t="inlineStr">
         <is>
@@ -2796,10 +2796,10 @@
         <v>0</v>
       </c>
       <c r="AC14" s="0" t="n">
-        <v>964573753</v>
+        <v>963897980</v>
       </c>
       <c r="AD14" s="0" t="n">
-        <v>302</v>
+        <v>155</v>
       </c>
       <c r="AE14" s="0"/>
       <c r="AF14" s="0" t="inlineStr">
@@ -2814,11 +2814,11 @@
         <v>10</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>9011</v>
+        <v>8875</v>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>MAEU6357369</t>
+          <t>MSKU6694310</t>
         </is>
       </c>
       <c r="D15" s="0" t="n">
@@ -2846,12 +2846,12 @@
       </c>
       <c r="I15" s="0" t="inlineStr">
         <is>
-          <t>BRIGHT</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J15" s="0" t="inlineStr">
         <is>
-          <t>2174/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K15" s="0" t="inlineStr">
@@ -2878,20 +2878,20 @@
       </c>
       <c r="U15" s="0" t="inlineStr">
         <is>
-          <t>UL1615421</t>
+          <t>KWH632850</t>
         </is>
       </c>
       <c r="V15" s="0"/>
       <c r="W15" s="0" t="inlineStr">
         <is>
-          <t>2018-12171</t>
+          <t>2018-9543</t>
         </is>
       </c>
       <c r="X15" s="4" t="d">
-        <v>2018-07-17T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y15" s="4" t="d">
-        <v>2018-07-20T00:00:00</v>
+        <v>2018-05-31T00:00:00</v>
       </c>
       <c r="Z15" s="0" t="inlineStr">
         <is>
@@ -2907,10 +2907,10 @@
         <v>0</v>
       </c>
       <c r="AC15" s="0" t="n">
-        <v>964573753</v>
+        <v>963897980</v>
       </c>
       <c r="AD15" s="0" t="n">
-        <v>302</v>
+        <v>155</v>
       </c>
       <c r="AE15" s="0"/>
       <c r="AF15" s="0" t="inlineStr">
@@ -2925,11 +2925,11 @@
         <v>11</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>9012</v>
+        <v>8876</v>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>MSKU6094337</t>
+          <t>MSKU6654010</t>
         </is>
       </c>
       <c r="D16" s="0" t="n">
@@ -2957,12 +2957,12 @@
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>BRIGHT</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J16" s="0" t="inlineStr">
         <is>
-          <t>2174/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K16" s="0" t="inlineStr">
@@ -2989,20 +2989,20 @@
       </c>
       <c r="U16" s="0" t="inlineStr">
         <is>
-          <t>UL1615417</t>
+          <t>KWH687345</t>
         </is>
       </c>
       <c r="V16" s="0"/>
       <c r="W16" s="0" t="inlineStr">
         <is>
-          <t>2018-12187</t>
+          <t>2018-9544</t>
         </is>
       </c>
       <c r="X16" s="4" t="d">
-        <v>2018-07-17T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y16" s="4" t="d">
-        <v>2018-07-23T00:00:00</v>
+        <v>2018-05-31T00:00:00</v>
       </c>
       <c r="Z16" s="0" t="inlineStr">
         <is>
@@ -3018,10 +3018,10 @@
         <v>0</v>
       </c>
       <c r="AC16" s="0" t="n">
-        <v>964573753</v>
+        <v>963897980</v>
       </c>
       <c r="AD16" s="0" t="n">
-        <v>302</v>
+        <v>155</v>
       </c>
       <c r="AE16" s="0"/>
       <c r="AF16" s="0" t="inlineStr">
@@ -3036,11 +3036,11 @@
         <v>12</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>9013</v>
+        <v>8877</v>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>MSKU6509705</t>
+          <t>MSKU8000770</t>
         </is>
       </c>
       <c r="D17" s="0" t="n">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
@@ -3068,12 +3068,12 @@
       </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
-          <t>BRIGHT</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J17" s="0" t="inlineStr">
         <is>
-          <t>2174/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K17" s="0" t="inlineStr">
@@ -3100,20 +3100,20 @@
       </c>
       <c r="U17" s="0" t="inlineStr">
         <is>
-          <t>KWH687414</t>
+          <t>KWH686930</t>
         </is>
       </c>
       <c r="V17" s="0"/>
       <c r="W17" s="0" t="inlineStr">
         <is>
-          <t>2018-12091</t>
+          <t>2018-9534</t>
         </is>
       </c>
       <c r="X17" s="4" t="d">
-        <v>2018-07-17T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y17" s="4" t="d">
-        <v>2018-07-20T00:00:00</v>
+        <v>2018-05-31T00:00:00</v>
       </c>
       <c r="Z17" s="0" t="inlineStr">
         <is>
@@ -3129,10 +3129,10 @@
         <v>0</v>
       </c>
       <c r="AC17" s="0" t="n">
-        <v>575756665</v>
+        <v>963897980</v>
       </c>
       <c r="AD17" s="0" t="n">
-        <v>255</v>
+        <v>155</v>
       </c>
       <c r="AE17" s="0"/>
       <c r="AF17" s="0" t="inlineStr">
@@ -3147,11 +3147,11 @@
         <v>13</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>9040</v>
+        <v>8878</v>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>TGHU6043898</t>
+          <t>PONU1823713</t>
         </is>
       </c>
       <c r="D18" s="0" t="n">
@@ -3159,7 +3159,7 @@
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
@@ -3179,12 +3179,12 @@
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>OEL BANGLADESH</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J18" s="0" t="inlineStr">
         <is>
-          <t>2232/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K18" s="0" t="inlineStr">
@@ -3209,20 +3209,22 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="U18" s="0" t="n">
-        <v>2185060</v>
+      <c r="U18" s="0" t="inlineStr">
+        <is>
+          <t>KWH687283</t>
+        </is>
       </c>
       <c r="V18" s="0"/>
       <c r="W18" s="0" t="inlineStr">
         <is>
-          <t>2018-12875</t>
+          <t>2018-9500</t>
         </is>
       </c>
       <c r="X18" s="4" t="d">
-        <v>2018-07-30T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y18" s="4" t="d">
-        <v>2018-07-31T00:00:00</v>
+        <v>2018-06-02T00:00:00</v>
       </c>
       <c r="Z18" s="0" t="inlineStr">
         <is>
@@ -3238,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="AC18" s="0" t="n">
-        <v>964620392</v>
+        <v>963897980</v>
       </c>
       <c r="AD18" s="0" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="AE18" s="0"/>
       <c r="AF18" s="0" t="inlineStr">
@@ -3256,11 +3258,11 @@
         <v>14</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>9041</v>
+        <v>8879</v>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>MSKU0637123</t>
+          <t>HASU4651075</t>
         </is>
       </c>
       <c r="D19" s="0" t="n">
@@ -3288,12 +3290,12 @@
       </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
-          <t>OEL BANGLADESH</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J19" s="0" t="inlineStr">
         <is>
-          <t>2232/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K19" s="0" t="inlineStr">
@@ -3319,19 +3321,19 @@
         </is>
       </c>
       <c r="U19" s="0" t="n">
-        <v>2830816</v>
+        <v>686923</v>
       </c>
       <c r="V19" s="0"/>
       <c r="W19" s="0" t="inlineStr">
         <is>
-          <t>2018-12868</t>
+          <t>2018-9671</t>
         </is>
       </c>
       <c r="X19" s="4" t="d">
-        <v>2018-07-30T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y19" s="4" t="d">
-        <v>2018-07-31T00:00:00</v>
+        <v>2018-06-02T00:00:00</v>
       </c>
       <c r="Z19" s="0" t="inlineStr">
         <is>
@@ -3347,10 +3349,10 @@
         <v>0</v>
       </c>
       <c r="AC19" s="0" t="n">
-        <v>964620392</v>
+        <v>963897980</v>
       </c>
       <c r="AD19" s="0" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="AE19" s="0"/>
       <c r="AF19" s="0" t="inlineStr">
@@ -3365,11 +3367,11 @@
         <v>15</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>9042</v>
+        <v>8880</v>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>PONU1819272</t>
+          <t>PONU1438403</t>
         </is>
       </c>
       <c r="D20" s="0" t="n">
@@ -3377,7 +3379,7 @@
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
@@ -3397,12 +3399,12 @@
       </c>
       <c r="I20" s="0" t="inlineStr">
         <is>
-          <t>OEL BANGLADESH</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J20" s="0" t="inlineStr">
         <is>
-          <t>2232/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K20" s="0" t="inlineStr">
@@ -3429,20 +3431,20 @@
       </c>
       <c r="U20" s="0" t="inlineStr">
         <is>
-          <t>UL2830749</t>
+          <t>KWH687276</t>
         </is>
       </c>
       <c r="V20" s="0"/>
       <c r="W20" s="0" t="inlineStr">
         <is>
-          <t>2018-12930</t>
+          <t>2018-9672</t>
         </is>
       </c>
       <c r="X20" s="4" t="d">
-        <v>2018-07-30T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y20" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-06-02T00:00:00</v>
       </c>
       <c r="Z20" s="0" t="inlineStr">
         <is>
@@ -3458,10 +3460,10 @@
         <v>0</v>
       </c>
       <c r="AC20" s="0" t="n">
-        <v>964620392</v>
+        <v>963897980</v>
       </c>
       <c r="AD20" s="0" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="AE20" s="0"/>
       <c r="AF20" s="0" t="inlineStr">
@@ -3476,11 +3478,11 @@
         <v>16</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>9043</v>
+        <v>8881</v>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>CAXU9261436</t>
+          <t>MSKU6316727</t>
         </is>
       </c>
       <c r="D21" s="0" t="n">
@@ -3488,7 +3490,7 @@
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
@@ -3508,12 +3510,12 @@
       </c>
       <c r="I21" s="0" t="inlineStr">
         <is>
-          <t>OEL BANGLADESH</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J21" s="0" t="inlineStr">
         <is>
-          <t>2232/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K21" s="0" t="inlineStr">
@@ -3538,20 +3540,22 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="U21" s="0" t="n">
-        <v>4107818</v>
+      <c r="U21" s="0" t="inlineStr">
+        <is>
+          <t>UL2916156</t>
+        </is>
       </c>
       <c r="V21" s="0"/>
       <c r="W21" s="0" t="inlineStr">
         <is>
-          <t>2018-12935</t>
+          <t>2018-9673</t>
         </is>
       </c>
       <c r="X21" s="4" t="d">
-        <v>2018-07-30T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y21" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-06-02T00:00:00</v>
       </c>
       <c r="Z21" s="0" t="inlineStr">
         <is>
@@ -3567,10 +3571,10 @@
         <v>0</v>
       </c>
       <c r="AC21" s="0" t="n">
-        <v>964620392</v>
+        <v>963897980</v>
       </c>
       <c r="AD21" s="0" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="AE21" s="0"/>
       <c r="AF21" s="0" t="inlineStr">
@@ -3585,11 +3589,11 @@
         <v>17</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>9044</v>
+        <v>8882</v>
       </c>
       <c r="C22" s="0" t="inlineStr">
         <is>
-          <t>PONU8266482</t>
+          <t>MAEU6360629</t>
         </is>
       </c>
       <c r="D22" s="0" t="n">
@@ -3597,7 +3601,7 @@
       </c>
       <c r="E22" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F22" s="0" t="inlineStr">
@@ -3617,12 +3621,12 @@
       </c>
       <c r="I22" s="0" t="inlineStr">
         <is>
-          <t>OEL BANGLADESH</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J22" s="0" t="inlineStr">
         <is>
-          <t>2232/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K22" s="0" t="inlineStr">
@@ -3649,20 +3653,20 @@
       </c>
       <c r="U22" s="0" t="inlineStr">
         <is>
-          <t>UL2830749</t>
+          <t>KWH687285</t>
         </is>
       </c>
       <c r="V22" s="0"/>
       <c r="W22" s="0" t="inlineStr">
         <is>
-          <t>2018-12940</t>
+          <t>2018-9574</t>
         </is>
       </c>
       <c r="X22" s="4" t="d">
-        <v>2018-07-30T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y22" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-06-02T00:00:00</v>
       </c>
       <c r="Z22" s="0" t="inlineStr">
         <is>
@@ -3678,10 +3682,10 @@
         <v>0</v>
       </c>
       <c r="AC22" s="0" t="n">
-        <v>964620392</v>
+        <v>963897980</v>
       </c>
       <c r="AD22" s="0" t="n">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="AE22" s="0"/>
       <c r="AF22" s="0" t="inlineStr">
@@ -3696,11 +3700,11 @@
         <v>18</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>9045</v>
+        <v>8883</v>
       </c>
       <c r="C23" s="0" t="inlineStr">
         <is>
-          <t>PONU7811427</t>
+          <t>PONU1484707</t>
         </is>
       </c>
       <c r="D23" s="0" t="n">
@@ -3708,7 +3712,7 @@
       </c>
       <c r="E23" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F23" s="0" t="inlineStr">
@@ -3728,12 +3732,12 @@
       </c>
       <c r="I23" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J23" s="0" t="inlineStr">
         <is>
-          <t>2291/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K23" s="0" t="inlineStr">
@@ -3760,20 +3764,20 @@
       </c>
       <c r="U23" s="0" t="inlineStr">
         <is>
-          <t>UL2830879</t>
+          <t>KWH687286</t>
         </is>
       </c>
       <c r="V23" s="0"/>
       <c r="W23" s="0" t="inlineStr">
         <is>
-          <t>2018-12988</t>
+          <t>2018-9679</t>
         </is>
       </c>
       <c r="X23" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y23" s="4" t="d">
-        <v>2018-08-03T00:00:00</v>
+        <v>2018-06-02T00:00:00</v>
       </c>
       <c r="Z23" s="0" t="inlineStr">
         <is>
@@ -3789,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="AC23" s="0" t="n">
-        <v>964694340</v>
+        <v>963897980</v>
       </c>
       <c r="AD23" s="0" t="n">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="AE23" s="0"/>
       <c r="AF23" s="0" t="inlineStr">
@@ -3807,11 +3811,11 @@
         <v>19</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>9046</v>
+        <v>8884</v>
       </c>
       <c r="C24" s="0" t="inlineStr">
         <is>
-          <t>PONU7918251</t>
+          <t>MRKU3419530</t>
         </is>
       </c>
       <c r="D24" s="0" t="n">
@@ -3839,12 +3843,12 @@
       </c>
       <c r="I24" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J24" s="0" t="inlineStr">
         <is>
-          <t>2291/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K24" s="0" t="inlineStr">
@@ -3869,22 +3873,20 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="U24" s="0" t="inlineStr">
-        <is>
-          <t>UL2830857</t>
-        </is>
+      <c r="U24" s="0" t="n">
+        <v>1098426</v>
       </c>
       <c r="V24" s="0"/>
       <c r="W24" s="0" t="inlineStr">
         <is>
-          <t>2018-12986</t>
+          <t>2018-9632</t>
         </is>
       </c>
       <c r="X24" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y24" s="4" t="d">
-        <v>2018-08-03T00:00:00</v>
+        <v>2018-06-03T00:00:00</v>
       </c>
       <c r="Z24" s="0" t="inlineStr">
         <is>
@@ -3900,10 +3902,10 @@
         <v>0</v>
       </c>
       <c r="AC24" s="0" t="n">
-        <v>964694340</v>
+        <v>963897980</v>
       </c>
       <c r="AD24" s="0" t="n">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="AE24" s="0"/>
       <c r="AF24" s="0" t="inlineStr">
@@ -3918,11 +3920,11 @@
         <v>20</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>9047</v>
+        <v>8885</v>
       </c>
       <c r="C25" s="0" t="inlineStr">
         <is>
-          <t>PONU1692260</t>
+          <t>PONU7575743</t>
         </is>
       </c>
       <c r="D25" s="0" t="n">
@@ -3930,7 +3932,7 @@
       </c>
       <c r="E25" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F25" s="0" t="inlineStr">
@@ -3950,12 +3952,12 @@
       </c>
       <c r="I25" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J25" s="0" t="inlineStr">
         <is>
-          <t>2291/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K25" s="0" t="inlineStr">
@@ -3982,20 +3984,20 @@
       </c>
       <c r="U25" s="0" t="inlineStr">
         <is>
-          <t>UL2830877</t>
+          <t>KWH686922</t>
         </is>
       </c>
       <c r="V25" s="0"/>
       <c r="W25" s="0" t="inlineStr">
         <is>
-          <t>2018-12992</t>
+          <t>2018-9506</t>
         </is>
       </c>
       <c r="X25" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y25" s="4" t="d">
-        <v>2018-08-03T00:00:00</v>
+        <v>2018-06-04T00:00:00</v>
       </c>
       <c r="Z25" s="0" t="inlineStr">
         <is>
@@ -4011,10 +4013,10 @@
         <v>0</v>
       </c>
       <c r="AC25" s="0" t="n">
-        <v>964694340</v>
+        <v>963897980</v>
       </c>
       <c r="AD25" s="0" t="n">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="AE25" s="0"/>
       <c r="AF25" s="0" t="inlineStr">
@@ -4029,11 +4031,11 @@
         <v>21</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>9048</v>
+        <v>8886</v>
       </c>
       <c r="C26" s="0" t="inlineStr">
         <is>
-          <t>MSKU9609945</t>
+          <t>TCLU5436696</t>
         </is>
       </c>
       <c r="D26" s="0" t="n">
@@ -4061,12 +4063,12 @@
       </c>
       <c r="I26" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J26" s="0" t="inlineStr">
         <is>
-          <t>2291/2018</t>
+          <t>1588/2018</t>
         </is>
       </c>
       <c r="K26" s="0" t="inlineStr">
@@ -4093,20 +4095,20 @@
       </c>
       <c r="U26" s="0" t="inlineStr">
         <is>
-          <t>UL2830851</t>
+          <t>KWH687295</t>
         </is>
       </c>
       <c r="V26" s="0"/>
       <c r="W26" s="0" t="inlineStr">
         <is>
-          <t>2018-12991</t>
+          <t>2018-9736</t>
         </is>
       </c>
       <c r="X26" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-05-19T00:00:00</v>
       </c>
       <c r="Y26" s="4" t="d">
-        <v>2018-08-03T00:00:00</v>
+        <v>2018-06-04T00:00:00</v>
       </c>
       <c r="Z26" s="0" t="inlineStr">
         <is>
@@ -4122,10 +4124,10 @@
         <v>0</v>
       </c>
       <c r="AC26" s="0" t="n">
-        <v>964694340</v>
+        <v>963897980</v>
       </c>
       <c r="AD26" s="0" t="n">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="AE26" s="0"/>
       <c r="AF26" s="0" t="inlineStr">
@@ -4140,11 +4142,11 @@
         <v>22</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>9049</v>
+        <v>8887</v>
       </c>
       <c r="C27" s="0" t="inlineStr">
         <is>
-          <t>MSKU8354454</t>
+          <t>MSKU6253948</t>
         </is>
       </c>
       <c r="D27" s="0" t="n">
@@ -4152,7 +4154,7 @@
       </c>
       <c r="E27" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F27" s="0" t="inlineStr">
@@ -4172,12 +4174,12 @@
       </c>
       <c r="I27" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>BLPL GRACE</t>
         </is>
       </c>
       <c r="J27" s="0" t="inlineStr">
         <is>
-          <t>2291/2018</t>
+          <t>1650/2018</t>
         </is>
       </c>
       <c r="K27" s="0" t="inlineStr">
@@ -4204,20 +4206,20 @@
       </c>
       <c r="U27" s="0" t="inlineStr">
         <is>
-          <t>UL2830854</t>
+          <t>KWH686907</t>
         </is>
       </c>
       <c r="V27" s="0"/>
       <c r="W27" s="0" t="inlineStr">
         <is>
-          <t>2018-12990</t>
+          <t>2018-9531</t>
         </is>
       </c>
       <c r="X27" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-05-29T00:00:00</v>
       </c>
       <c r="Y27" s="4" t="d">
-        <v>2018-08-03T00:00:00</v>
+        <v>2018-05-31T00:00:00</v>
       </c>
       <c r="Z27" s="0" t="inlineStr">
         <is>
@@ -4233,10 +4235,10 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0" t="n">
-        <v>964694340</v>
+        <v>575334555</v>
       </c>
       <c r="AD27" s="0" t="n">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="AE27" s="0"/>
       <c r="AF27" s="0" t="inlineStr">
@@ -4251,11 +4253,11 @@
         <v>23</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>9050</v>
+        <v>8888</v>
       </c>
       <c r="C28" s="0" t="inlineStr">
         <is>
-          <t>PONU1894316</t>
+          <t>MSKU6120061</t>
         </is>
       </c>
       <c r="D28" s="0" t="n">
@@ -4283,12 +4285,12 @@
       </c>
       <c r="I28" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>BLPL GRACE</t>
         </is>
       </c>
       <c r="J28" s="0" t="inlineStr">
         <is>
-          <t>2291/2018</t>
+          <t>1650/2018</t>
         </is>
       </c>
       <c r="K28" s="0" t="inlineStr">
@@ -4315,20 +4317,20 @@
       </c>
       <c r="U28" s="0" t="inlineStr">
         <is>
-          <t>UL2830882</t>
+          <t>KWH687320</t>
         </is>
       </c>
       <c r="V28" s="0"/>
       <c r="W28" s="0" t="inlineStr">
         <is>
-          <t>2018-12995</t>
+          <t>2018-9532</t>
         </is>
       </c>
       <c r="X28" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-05-29T00:00:00</v>
       </c>
       <c r="Y28" s="4" t="d">
-        <v>2018-08-03T00:00:00</v>
+        <v>2018-05-31T00:00:00</v>
       </c>
       <c r="Z28" s="0" t="inlineStr">
         <is>
@@ -4344,10 +4346,10 @@
         <v>0</v>
       </c>
       <c r="AC28" s="0" t="n">
-        <v>964694340</v>
+        <v>575334555</v>
       </c>
       <c r="AD28" s="0" t="n">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="AE28" s="0"/>
       <c r="AF28" s="0" t="inlineStr">
@@ -4362,11 +4364,11 @@
         <v>24</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>9051</v>
+        <v>8889</v>
       </c>
       <c r="C29" s="0" t="inlineStr">
         <is>
-          <t>MSKU9252694</t>
+          <t>PONU7330756</t>
         </is>
       </c>
       <c r="D29" s="0" t="n">
@@ -4394,12 +4396,12 @@
       </c>
       <c r="I29" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>BLPL GRACE</t>
         </is>
       </c>
       <c r="J29" s="0" t="inlineStr">
         <is>
-          <t>2291/2018</t>
+          <t>1650/2018</t>
         </is>
       </c>
       <c r="K29" s="0" t="inlineStr">
@@ -4426,20 +4428,20 @@
       </c>
       <c r="U29" s="0" t="inlineStr">
         <is>
-          <t>UL2830875</t>
+          <t>KWH687322</t>
         </is>
       </c>
       <c r="V29" s="0"/>
       <c r="W29" s="0" t="inlineStr">
         <is>
-          <t>2018-12998</t>
+          <t>2018-9693</t>
         </is>
       </c>
       <c r="X29" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-05-29T00:00:00</v>
       </c>
       <c r="Y29" s="4" t="d">
-        <v>2018-08-03T00:00:00</v>
+        <v>2018-06-03T00:00:00</v>
       </c>
       <c r="Z29" s="0" t="inlineStr">
         <is>
@@ -4455,10 +4457,10 @@
         <v>0</v>
       </c>
       <c r="AC29" s="0" t="n">
-        <v>964694340</v>
+        <v>575334555</v>
       </c>
       <c r="AD29" s="0" t="n">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="AE29" s="0"/>
       <c r="AF29" s="0" t="inlineStr">
@@ -4473,11 +4475,11 @@
         <v>25</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>9052</v>
+        <v>8890</v>
       </c>
       <c r="C30" s="0" t="inlineStr">
         <is>
-          <t>MSKU9470931</t>
+          <t>SUDU8595563</t>
         </is>
       </c>
       <c r="D30" s="0" t="n">
@@ -4505,12 +4507,12 @@
       </c>
       <c r="I30" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>BLPL GRACE</t>
         </is>
       </c>
       <c r="J30" s="0" t="inlineStr">
         <is>
-          <t>2291/2018</t>
+          <t>1650/2018</t>
         </is>
       </c>
       <c r="K30" s="0" t="inlineStr">
@@ -4537,20 +4539,20 @@
       </c>
       <c r="U30" s="0" t="inlineStr">
         <is>
-          <t>UL2830855</t>
+          <t>KWH686925</t>
         </is>
       </c>
       <c r="V30" s="0"/>
       <c r="W30" s="0" t="inlineStr">
         <is>
-          <t>2018-12999</t>
+          <t>2018-9704</t>
         </is>
       </c>
       <c r="X30" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-05-29T00:00:00</v>
       </c>
       <c r="Y30" s="4" t="d">
-        <v>2018-08-03T00:00:00</v>
+        <v>2018-06-03T00:00:00</v>
       </c>
       <c r="Z30" s="0" t="inlineStr">
         <is>
@@ -4566,10 +4568,10 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0" t="n">
-        <v>964694340</v>
+        <v>575334555</v>
       </c>
       <c r="AD30" s="0" t="n">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="AE30" s="0"/>
       <c r="AF30" s="0" t="inlineStr">
@@ -4584,11 +4586,11 @@
         <v>26</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>9053</v>
+        <v>8891</v>
       </c>
       <c r="C31" s="0" t="inlineStr">
         <is>
-          <t>MSKU8752592</t>
+          <t>MRKU0258961</t>
         </is>
       </c>
       <c r="D31" s="0" t="n">
@@ -4596,7 +4598,7 @@
       </c>
       <c r="E31" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F31" s="0" t="inlineStr">
@@ -4616,12 +4618,12 @@
       </c>
       <c r="I31" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>BLPL GRACE</t>
         </is>
       </c>
       <c r="J31" s="0" t="inlineStr">
         <is>
-          <t>2291/2018</t>
+          <t>1650/2018</t>
         </is>
       </c>
       <c r="K31" s="0" t="inlineStr">
@@ -4648,20 +4650,20 @@
       </c>
       <c r="U31" s="0" t="inlineStr">
         <is>
-          <t>UL2830880</t>
+          <t>KWH686828</t>
         </is>
       </c>
       <c r="V31" s="0"/>
       <c r="W31" s="0" t="inlineStr">
         <is>
-          <t>2018-12997</t>
+          <t>2018-9955</t>
         </is>
       </c>
       <c r="X31" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-05-29T00:00:00</v>
       </c>
       <c r="Y31" s="4" t="d">
-        <v>2018-08-03T00:00:00</v>
+        <v>2018-06-07T00:00:00</v>
       </c>
       <c r="Z31" s="0" t="inlineStr">
         <is>
@@ -4677,10 +4679,10 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0" t="n">
-        <v>964694340</v>
+        <v>575334555</v>
       </c>
       <c r="AD31" s="0" t="n">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="AE31" s="0"/>
       <c r="AF31" s="0" t="inlineStr">
@@ -4695,11 +4697,11 @@
         <v>27</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>9054</v>
+        <v>8892</v>
       </c>
       <c r="C32" s="0" t="inlineStr">
         <is>
-          <t>MIEU3069581</t>
+          <t>MRKU0243200</t>
         </is>
       </c>
       <c r="D32" s="0" t="n">
@@ -4707,7 +4709,7 @@
       </c>
       <c r="E32" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F32" s="0" t="inlineStr">
@@ -4727,12 +4729,12 @@
       </c>
       <c r="I32" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>BLPL GRACE</t>
         </is>
       </c>
       <c r="J32" s="0" t="inlineStr">
         <is>
-          <t>2291/2018</t>
+          <t>1650/2018</t>
         </is>
       </c>
       <c r="K32" s="0" t="inlineStr">
@@ -4759,20 +4761,20 @@
       </c>
       <c r="U32" s="0" t="inlineStr">
         <is>
-          <t>UL2830853</t>
+          <t>KWH686758</t>
         </is>
       </c>
       <c r="V32" s="0"/>
       <c r="W32" s="0" t="inlineStr">
         <is>
-          <t>2018-13084</t>
+          <t>2018-9950</t>
         </is>
       </c>
       <c r="X32" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-05-29T00:00:00</v>
       </c>
       <c r="Y32" s="4" t="d">
-        <v>2018-08-04T00:00:00</v>
+        <v>2018-06-07T00:00:00</v>
       </c>
       <c r="Z32" s="0" t="inlineStr">
         <is>
@@ -4788,10 +4790,10 @@
         <v>0</v>
       </c>
       <c r="AC32" s="0" t="n">
-        <v>964694340</v>
+        <v>575334555</v>
       </c>
       <c r="AD32" s="0" t="n">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="AE32" s="0"/>
       <c r="AF32" s="0" t="inlineStr">
@@ -4806,11 +4808,11 @@
         <v>28</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>9055</v>
+        <v>8893</v>
       </c>
       <c r="C33" s="0" t="inlineStr">
         <is>
-          <t>MSKU6874333</t>
+          <t>SUDU8785619</t>
         </is>
       </c>
       <c r="D33" s="0" t="n">
@@ -4818,7 +4820,7 @@
       </c>
       <c r="E33" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F33" s="0" t="inlineStr">
@@ -4838,12 +4840,12 @@
       </c>
       <c r="I33" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>BLPL GRACE</t>
         </is>
       </c>
       <c r="J33" s="0" t="inlineStr">
         <is>
-          <t>2291/2018</t>
+          <t>1650/2018</t>
         </is>
       </c>
       <c r="K33" s="0" t="inlineStr">
@@ -4870,20 +4872,20 @@
       </c>
       <c r="U33" s="0" t="inlineStr">
         <is>
-          <t>UL2830881</t>
+          <t>KWH687329</t>
         </is>
       </c>
       <c r="V33" s="0"/>
       <c r="W33" s="0" t="inlineStr">
         <is>
-          <t>2018-13180</t>
+          <t>2018-10081</t>
         </is>
       </c>
       <c r="X33" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-05-29T00:00:00</v>
       </c>
       <c r="Y33" s="4" t="d">
-        <v>2018-08-10T00:00:00</v>
+        <v>2018-06-09T00:00:00</v>
       </c>
       <c r="Z33" s="0" t="inlineStr">
         <is>
@@ -4899,10 +4901,10 @@
         <v>0</v>
       </c>
       <c r="AC33" s="0" t="n">
-        <v>964694340</v>
+        <v>575334555</v>
       </c>
       <c r="AD33" s="0" t="n">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="AE33" s="0"/>
       <c r="AF33" s="0" t="inlineStr">
@@ -4917,11 +4919,11 @@
         <v>29</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>9056</v>
+        <v>9005</v>
       </c>
       <c r="C34" s="0" t="inlineStr">
         <is>
-          <t>PONU7777364</t>
+          <t>MSKU6440949</t>
         </is>
       </c>
       <c r="D34" s="0" t="n">
@@ -4929,7 +4931,7 @@
       </c>
       <c r="E34" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F34" s="0" t="inlineStr">
@@ -4949,12 +4951,12 @@
       </c>
       <c r="I34" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>BRIGHT</t>
         </is>
       </c>
       <c r="J34" s="0" t="inlineStr">
         <is>
-          <t>2291/2018</t>
+          <t>2174/2018</t>
         </is>
       </c>
       <c r="K34" s="0" t="inlineStr">
@@ -4981,20 +4983,20 @@
       </c>
       <c r="U34" s="0" t="inlineStr">
         <is>
-          <t>UL2830878</t>
+          <t>UL1614691</t>
         </is>
       </c>
       <c r="V34" s="0"/>
       <c r="W34" s="0" t="inlineStr">
         <is>
-          <t>2018-13246</t>
+          <t>2018-12092</t>
         </is>
       </c>
       <c r="X34" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-07-17T00:00:00</v>
       </c>
       <c r="Y34" s="4" t="d">
-        <v>2018-08-11T00:00:00</v>
+        <v>2018-07-19T00:00:00</v>
       </c>
       <c r="Z34" s="0" t="inlineStr">
         <is>
@@ -5010,10 +5012,10 @@
         <v>0</v>
       </c>
       <c r="AC34" s="0" t="n">
-        <v>964694340</v>
+        <v>964766879</v>
       </c>
       <c r="AD34" s="0" t="n">
-        <v>133</v>
+        <v>306</v>
       </c>
       <c r="AE34" s="0"/>
       <c r="AF34" s="0" t="inlineStr">
@@ -5028,11 +5030,11 @@
         <v>30</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>9057</v>
+        <v>9006</v>
       </c>
       <c r="C35" s="0" t="inlineStr">
         <is>
-          <t>PONU1813931</t>
+          <t>MSKU9550235</t>
         </is>
       </c>
       <c r="D35" s="0" t="n">
@@ -5040,7 +5042,7 @@
       </c>
       <c r="E35" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F35" s="0" t="inlineStr">
@@ -5060,12 +5062,12 @@
       </c>
       <c r="I35" s="0" t="inlineStr">
         <is>
-          <t>XPRESS LHOTSE</t>
+          <t>BRIGHT</t>
         </is>
       </c>
       <c r="J35" s="0" t="inlineStr">
         <is>
-          <t>2291/2018</t>
+          <t>2174/2018</t>
         </is>
       </c>
       <c r="K35" s="0" t="inlineStr">
@@ -5092,20 +5094,20 @@
       </c>
       <c r="U35" s="0" t="inlineStr">
         <is>
-          <t>UL2830852</t>
+          <t>UL1614692</t>
         </is>
       </c>
       <c r="V35" s="0"/>
       <c r="W35" s="0" t="inlineStr">
         <is>
-          <t>2018-13181</t>
+          <t>2018-12107</t>
         </is>
       </c>
       <c r="X35" s="4" t="d">
-        <v>2018-08-01T00:00:00</v>
+        <v>2018-07-17T00:00:00</v>
       </c>
       <c r="Y35" s="4" t="d">
-        <v>2018-08-11T00:00:00</v>
+        <v>2018-07-19T00:00:00</v>
       </c>
       <c r="Z35" s="0" t="inlineStr">
         <is>
@@ -5121,10 +5123,10 @@
         <v>0</v>
       </c>
       <c r="AC35" s="0" t="n">
-        <v>964694340</v>
+        <v>964766879</v>
       </c>
       <c r="AD35" s="0" t="n">
-        <v>133</v>
+        <v>306</v>
       </c>
       <c r="AE35" s="0"/>
       <c r="AF35" s="0" t="inlineStr">
@@ -5139,15 +5141,15 @@
         <v>31</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>9722</v>
+        <v>9007</v>
       </c>
       <c r="C36" s="0" t="inlineStr">
         <is>
-          <t>MSKU5753050</t>
+          <t>GLDU0996495</t>
         </is>
       </c>
       <c r="D36" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E36" s="0" t="inlineStr">
         <is>
@@ -5171,17 +5173,17 @@
       </c>
       <c r="I36" s="0" t="inlineStr">
         <is>
-          <t>CAROLINA TRADER</t>
+          <t>BRIGHT</t>
         </is>
       </c>
       <c r="J36" s="0" t="inlineStr">
         <is>
-          <t>2794/2018</t>
+          <t>2174/2018</t>
         </is>
       </c>
       <c r="K36" s="0" t="inlineStr">
         <is>
-          <t>JTC CARGO INTERNATIONAL</t>
+          <t>A A COARSE SPUN LTD</t>
         </is>
       </c>
       <c r="L36" s="0" t="inlineStr">
@@ -5198,25 +5200,25 @@
       <c r="S36" s="0"/>
       <c r="T36" s="0" t="inlineStr">
         <is>
-          <t>SODIUM SULPHATE</t>
+          <t>RAW COTTON</t>
         </is>
       </c>
       <c r="U36" s="0" t="inlineStr">
         <is>
-          <t>CN8969052</t>
+          <t>UL1614690</t>
         </is>
       </c>
       <c r="V36" s="0"/>
       <c r="W36" s="0" t="inlineStr">
         <is>
-          <t>2018-15622</t>
+          <t>2018-12180</t>
         </is>
       </c>
       <c r="X36" s="4" t="d">
-        <v>2018-09-17T00:00:00</v>
+        <v>2018-07-17T00:00:00</v>
       </c>
       <c r="Y36" s="4" t="d">
-        <v>2018-09-17T00:00:00</v>
+        <v>2018-07-20T00:00:00</v>
       </c>
       <c r="Z36" s="0" t="inlineStr">
         <is>
@@ -5231,13 +5233,11 @@
       <c r="AB36" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC36" s="0" t="inlineStr">
-        <is>
-          <t>MCB418551</t>
-        </is>
+      <c r="AC36" s="0" t="n">
+        <v>964766879</v>
       </c>
       <c r="AD36" s="0" t="n">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="AE36" s="0"/>
       <c r="AF36" s="0" t="inlineStr">
@@ -5252,15 +5252,15 @@
         <v>32</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>9723</v>
+        <v>9008</v>
       </c>
       <c r="C37" s="0" t="inlineStr">
         <is>
-          <t>PONU2098653</t>
+          <t>MRKU0087827</t>
         </is>
       </c>
       <c r="D37" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E37" s="0" t="inlineStr">
         <is>
@@ -5284,17 +5284,17 @@
       </c>
       <c r="I37" s="0" t="inlineStr">
         <is>
-          <t>CAROLINA TRADER</t>
+          <t>BRIGHT</t>
         </is>
       </c>
       <c r="J37" s="0" t="inlineStr">
         <is>
-          <t>2794/2018</t>
+          <t>2174/2018</t>
         </is>
       </c>
       <c r="K37" s="0" t="inlineStr">
         <is>
-          <t>JTC CARGO INTERNATIONAL</t>
+          <t>A A COARSE SPUN LTD</t>
         </is>
       </c>
       <c r="L37" s="0" t="inlineStr">
@@ -5311,25 +5311,25 @@
       <c r="S37" s="0"/>
       <c r="T37" s="0" t="inlineStr">
         <is>
-          <t>SODIUM SULPHATE</t>
+          <t>RAW COTTON</t>
         </is>
       </c>
       <c r="U37" s="0" t="inlineStr">
         <is>
-          <t>CN8969053</t>
+          <t>UL1614693</t>
         </is>
       </c>
       <c r="V37" s="0"/>
       <c r="W37" s="0" t="inlineStr">
         <is>
-          <t>2018-15623</t>
+          <t>2018-12164</t>
         </is>
       </c>
       <c r="X37" s="4" t="d">
-        <v>2018-09-17T00:00:00</v>
+        <v>2018-07-17T00:00:00</v>
       </c>
       <c r="Y37" s="4" t="d">
-        <v>2018-09-17T00:00:00</v>
+        <v>2018-07-20T00:00:00</v>
       </c>
       <c r="Z37" s="0" t="inlineStr">
         <is>
@@ -5344,13 +5344,11 @@
       <c r="AB37" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC37" s="0" t="inlineStr">
-        <is>
-          <t>MCB418551</t>
-        </is>
+      <c r="AC37" s="0" t="n">
+        <v>964766879</v>
       </c>
       <c r="AD37" s="0" t="n">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="AE37" s="0"/>
       <c r="AF37" s="0" t="inlineStr">
@@ -5365,19 +5363,19 @@
         <v>33</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>9724</v>
+        <v>9009</v>
       </c>
       <c r="C38" s="0" t="inlineStr">
         <is>
-          <t>MSKU2852892</t>
+          <t>MSKU8517886</t>
         </is>
       </c>
       <c r="D38" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E38" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F38" s="0" t="inlineStr">
@@ -5397,17 +5395,17 @@
       </c>
       <c r="I38" s="0" t="inlineStr">
         <is>
-          <t>CAROLINA TRADER</t>
+          <t>BRIGHT</t>
         </is>
       </c>
       <c r="J38" s="0" t="inlineStr">
         <is>
-          <t>2794/2018</t>
+          <t>2174/2018</t>
         </is>
       </c>
       <c r="K38" s="0" t="inlineStr">
         <is>
-          <t>JTC CARGO INTERNATIONAL</t>
+          <t>A A COARSE SPUN LTD</t>
         </is>
       </c>
       <c r="L38" s="0" t="inlineStr">
@@ -5424,25 +5422,25 @@
       <c r="S38" s="0"/>
       <c r="T38" s="0" t="inlineStr">
         <is>
-          <t>SODIUM SULPHATE</t>
+          <t>RAW COTTON</t>
         </is>
       </c>
       <c r="U38" s="0" t="inlineStr">
         <is>
-          <t>CN8969127</t>
+          <t>UL1615420</t>
         </is>
       </c>
       <c r="V38" s="0"/>
       <c r="W38" s="0" t="inlineStr">
         <is>
-          <t>2018-15624</t>
+          <t>2018-12102</t>
         </is>
       </c>
       <c r="X38" s="4" t="d">
-        <v>2018-09-17T00:00:00</v>
+        <v>2018-07-17T00:00:00</v>
       </c>
       <c r="Y38" s="4" t="d">
-        <v>2018-09-17T00:00:00</v>
+        <v>2018-07-19T00:00:00</v>
       </c>
       <c r="Z38" s="0" t="inlineStr">
         <is>
@@ -5457,13 +5455,11 @@
       <c r="AB38" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC38" s="0" t="inlineStr">
-        <is>
-          <t>MCB418551</t>
-        </is>
+      <c r="AC38" s="0" t="n">
+        <v>964573753</v>
       </c>
       <c r="AD38" s="0" t="n">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="AE38" s="0"/>
       <c r="AF38" s="0" t="inlineStr">
@@ -5478,19 +5474,19 @@
         <v>34</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>9725</v>
+        <v>9010</v>
       </c>
       <c r="C39" s="0" t="inlineStr">
         <is>
-          <t>IPXU3733892</t>
+          <t>TRLU6876549</t>
         </is>
       </c>
       <c r="D39" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E39" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F39" s="0" t="inlineStr">
@@ -5510,17 +5506,17 @@
       </c>
       <c r="I39" s="0" t="inlineStr">
         <is>
-          <t>CAROLINA TRADER</t>
+          <t>BRIGHT</t>
         </is>
       </c>
       <c r="J39" s="0" t="inlineStr">
         <is>
-          <t>2794/2018</t>
+          <t>2174/2018</t>
         </is>
       </c>
       <c r="K39" s="0" t="inlineStr">
         <is>
-          <t>JTC CARGO INTERNATIONAL</t>
+          <t>A A COARSE SPUN LTD</t>
         </is>
       </c>
       <c r="L39" s="0" t="inlineStr">
@@ -5537,25 +5533,25 @@
       <c r="S39" s="0"/>
       <c r="T39" s="0" t="inlineStr">
         <is>
-          <t>SODIUM SULPHATE</t>
+          <t>RAW COTTON</t>
         </is>
       </c>
       <c r="U39" s="0" t="inlineStr">
         <is>
-          <t>CN8969128</t>
+          <t>UL1615419</t>
         </is>
       </c>
       <c r="V39" s="0"/>
       <c r="W39" s="0" t="inlineStr">
         <is>
-          <t>2018-15625</t>
+          <t>2018-12138</t>
         </is>
       </c>
       <c r="X39" s="4" t="d">
-        <v>2018-09-17T00:00:00</v>
+        <v>2018-07-17T00:00:00</v>
       </c>
       <c r="Y39" s="4" t="d">
-        <v>2018-09-17T00:00:00</v>
+        <v>2018-07-19T00:00:00</v>
       </c>
       <c r="Z39" s="0" t="inlineStr">
         <is>
@@ -5570,13 +5566,11 @@
       <c r="AB39" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC39" s="0" t="inlineStr">
-        <is>
-          <t>MCB418551</t>
-        </is>
+      <c r="AC39" s="0" t="n">
+        <v>964573753</v>
       </c>
       <c r="AD39" s="0" t="n">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="AE39" s="0"/>
       <c r="AF39" s="0" t="inlineStr">
@@ -5591,15 +5585,15 @@
         <v>35</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>8829</v>
+        <v>9011</v>
       </c>
       <c r="C40" s="0" t="inlineStr">
         <is>
-          <t>MSKU7718973</t>
+          <t>MAEU6357369</t>
         </is>
       </c>
       <c r="D40" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E40" s="0" t="inlineStr">
         <is>
@@ -5623,17 +5617,17 @@
       </c>
       <c r="I40" s="0" t="inlineStr">
         <is>
-          <t>VASI SUN</t>
+          <t>BRIGHT</t>
         </is>
       </c>
       <c r="J40" s="0" t="inlineStr">
         <is>
-          <t>0116/2017</t>
+          <t>2174/2018</t>
         </is>
       </c>
       <c r="K40" s="0" t="inlineStr">
         <is>
-          <t>BENGAL TRADING</t>
+          <t>A A COARSE SPUN LTD</t>
         </is>
       </c>
       <c r="L40" s="0" t="inlineStr">
@@ -5650,25 +5644,25 @@
       <c r="S40" s="0"/>
       <c r="T40" s="0" t="inlineStr">
         <is>
-          <t>CHICK PEAS</t>
+          <t>RAW COTTON</t>
         </is>
       </c>
       <c r="U40" s="0" t="inlineStr">
         <is>
-          <t>AU0512384</t>
+          <t>UL1615421</t>
         </is>
       </c>
       <c r="V40" s="0"/>
       <c r="W40" s="0" t="inlineStr">
         <is>
-          <t>2017-1136</t>
+          <t>2018-12171</t>
         </is>
       </c>
       <c r="X40" s="4" t="d">
-        <v>2017-01-16T00:00:00</v>
+        <v>2018-07-17T00:00:00</v>
       </c>
       <c r="Y40" s="4" t="d">
-        <v>2017-01-17T00:00:00</v>
+        <v>2018-07-20T00:00:00</v>
       </c>
       <c r="Z40" s="0" t="inlineStr">
         <is>
@@ -5684,10 +5678,10 @@
         <v>0</v>
       </c>
       <c r="AC40" s="0" t="n">
-        <v>571749290</v>
+        <v>964573753</v>
       </c>
       <c r="AD40" s="0" t="n">
-        <v>109</v>
+        <v>302</v>
       </c>
       <c r="AE40" s="0"/>
       <c r="AF40" s="0" t="inlineStr">
@@ -5702,15 +5696,15 @@
         <v>36</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>8830</v>
+        <v>9012</v>
       </c>
       <c r="C41" s="0" t="inlineStr">
         <is>
-          <t>MSKU2423244</t>
+          <t>MSKU6094337</t>
         </is>
       </c>
       <c r="D41" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E41" s="0" t="inlineStr">
         <is>
@@ -5734,17 +5728,17 @@
       </c>
       <c r="I41" s="0" t="inlineStr">
         <is>
-          <t>VASI SUN</t>
+          <t>BRIGHT</t>
         </is>
       </c>
       <c r="J41" s="0" t="inlineStr">
         <is>
-          <t>0116/2017</t>
+          <t>2174/2018</t>
         </is>
       </c>
       <c r="K41" s="0" t="inlineStr">
         <is>
-          <t>BENGAL TRADING</t>
+          <t>A A COARSE SPUN LTD</t>
         </is>
       </c>
       <c r="L41" s="0" t="inlineStr">
@@ -5761,25 +5755,25 @@
       <c r="S41" s="0"/>
       <c r="T41" s="0" t="inlineStr">
         <is>
-          <t>CHICK PEAS</t>
+          <t>RAW COTTON</t>
         </is>
       </c>
       <c r="U41" s="0" t="inlineStr">
         <is>
-          <t>AU0514169</t>
+          <t>UL1615417</t>
         </is>
       </c>
       <c r="V41" s="0"/>
       <c r="W41" s="0" t="inlineStr">
         <is>
-          <t>2017-1282</t>
+          <t>2018-12187</t>
         </is>
       </c>
       <c r="X41" s="4" t="d">
-        <v>2017-01-16T00:00:00</v>
+        <v>2018-07-17T00:00:00</v>
       </c>
       <c r="Y41" s="4" t="d">
-        <v>2017-01-21T00:00:00</v>
+        <v>2018-07-23T00:00:00</v>
       </c>
       <c r="Z41" s="0" t="inlineStr">
         <is>
@@ -5795,10 +5789,10 @@
         <v>0</v>
       </c>
       <c r="AC41" s="0" t="n">
-        <v>571749290</v>
+        <v>964573753</v>
       </c>
       <c r="AD41" s="0" t="n">
-        <v>109</v>
+        <v>302</v>
       </c>
       <c r="AE41" s="0"/>
       <c r="AF41" s="0" t="inlineStr">
@@ -5813,11 +5807,11 @@
         <v>37</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>8868</v>
+        <v>9013</v>
       </c>
       <c r="C42" s="0" t="inlineStr">
         <is>
-          <t>MSKU9163730</t>
+          <t>MSKU6509705</t>
         </is>
       </c>
       <c r="D42" s="0" t="n">
@@ -5825,7 +5819,7 @@
       </c>
       <c r="E42" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F42" s="0" t="inlineStr">
@@ -5845,12 +5839,12 @@
       </c>
       <c r="I42" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>BRIGHT</t>
         </is>
       </c>
       <c r="J42" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2174/2018</t>
         </is>
       </c>
       <c r="K42" s="0" t="inlineStr">
@@ -5877,20 +5871,20 @@
       </c>
       <c r="U42" s="0" t="inlineStr">
         <is>
-          <t>KWH687344</t>
+          <t>KWH687414</t>
         </is>
       </c>
       <c r="V42" s="0"/>
       <c r="W42" s="0" t="inlineStr">
         <is>
-          <t>2018-9476</t>
+          <t>2018-12091</t>
         </is>
       </c>
       <c r="X42" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-07-17T00:00:00</v>
       </c>
       <c r="Y42" s="4" t="d">
-        <v>2018-05-30T00:00:00</v>
+        <v>2018-07-20T00:00:00</v>
       </c>
       <c r="Z42" s="0" t="inlineStr">
         <is>
@@ -5906,10 +5900,10 @@
         <v>0</v>
       </c>
       <c r="AC42" s="0" t="n">
-        <v>963897980</v>
+        <v>575756665</v>
       </c>
       <c r="AD42" s="0" t="n">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="AE42" s="0"/>
       <c r="AF42" s="0" t="inlineStr">
@@ -5924,11 +5918,11 @@
         <v>38</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>8869</v>
+        <v>9040</v>
       </c>
       <c r="C43" s="0" t="inlineStr">
         <is>
-          <t>MSKU9055669</t>
+          <t>TGHU6043898</t>
         </is>
       </c>
       <c r="D43" s="0" t="n">
@@ -5956,12 +5950,12 @@
       </c>
       <c r="I43" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>OEL BANGLADESH</t>
         </is>
       </c>
       <c r="J43" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2232/2018</t>
         </is>
       </c>
       <c r="K43" s="0" t="inlineStr">
@@ -5986,22 +5980,20 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="U43" s="0" t="inlineStr">
-        <is>
-          <t>KWH687327</t>
-        </is>
+      <c r="U43" s="0" t="n">
+        <v>2185060</v>
       </c>
       <c r="V43" s="0"/>
       <c r="W43" s="0" t="inlineStr">
         <is>
-          <t>2018-9477</t>
+          <t>2018-12875</t>
         </is>
       </c>
       <c r="X43" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-07-30T00:00:00</v>
       </c>
       <c r="Y43" s="4" t="d">
-        <v>2018-05-30T00:00:00</v>
+        <v>2018-07-31T00:00:00</v>
       </c>
       <c r="Z43" s="0" t="inlineStr">
         <is>
@@ -6017,10 +6009,10 @@
         <v>0</v>
       </c>
       <c r="AC43" s="0" t="n">
-        <v>963897980</v>
+        <v>964620392</v>
       </c>
       <c r="AD43" s="0" t="n">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="AE43" s="0"/>
       <c r="AF43" s="0" t="inlineStr">
@@ -6035,11 +6027,11 @@
         <v>39</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>8870</v>
+        <v>9041</v>
       </c>
       <c r="C44" s="0" t="inlineStr">
         <is>
-          <t>PONU1509889</t>
+          <t>MSKU0637123</t>
         </is>
       </c>
       <c r="D44" s="0" t="n">
@@ -6047,7 +6039,7 @@
       </c>
       <c r="E44" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F44" s="0" t="inlineStr">
@@ -6067,12 +6059,12 @@
       </c>
       <c r="I44" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>OEL BANGLADESH</t>
         </is>
       </c>
       <c r="J44" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2232/2018</t>
         </is>
       </c>
       <c r="K44" s="0" t="inlineStr">
@@ -6097,22 +6089,20 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="U44" s="0" t="inlineStr">
-        <is>
-          <t>KWH686765</t>
-        </is>
+      <c r="U44" s="0" t="n">
+        <v>2830816</v>
       </c>
       <c r="V44" s="0"/>
       <c r="W44" s="0" t="inlineStr">
         <is>
-          <t>2018-9491</t>
+          <t>2018-12868</t>
         </is>
       </c>
       <c r="X44" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-07-30T00:00:00</v>
       </c>
       <c r="Y44" s="4" t="d">
-        <v>2018-05-30T00:00:00</v>
+        <v>2018-07-31T00:00:00</v>
       </c>
       <c r="Z44" s="0" t="inlineStr">
         <is>
@@ -6128,10 +6118,10 @@
         <v>0</v>
       </c>
       <c r="AC44" s="0" t="n">
-        <v>963897980</v>
+        <v>964620392</v>
       </c>
       <c r="AD44" s="0" t="n">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="AE44" s="0"/>
       <c r="AF44" s="0" t="inlineStr">
@@ -6146,11 +6136,11 @@
         <v>40</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>8871</v>
+        <v>9042</v>
       </c>
       <c r="C45" s="0" t="inlineStr">
         <is>
-          <t>SUDU6787150</t>
+          <t>PONU1819272</t>
         </is>
       </c>
       <c r="D45" s="0" t="n">
@@ -6178,12 +6168,12 @@
       </c>
       <c r="I45" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>OEL BANGLADESH</t>
         </is>
       </c>
       <c r="J45" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2232/2018</t>
         </is>
       </c>
       <c r="K45" s="0" t="inlineStr">
@@ -6210,20 +6200,20 @@
       </c>
       <c r="U45" s="0" t="inlineStr">
         <is>
-          <t>KWH686903</t>
+          <t>UL2830749</t>
         </is>
       </c>
       <c r="V45" s="0"/>
       <c r="W45" s="0" t="inlineStr">
         <is>
-          <t>2018-9489</t>
+          <t>2018-12930</t>
         </is>
       </c>
       <c r="X45" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-07-30T00:00:00</v>
       </c>
       <c r="Y45" s="4" t="d">
-        <v>2018-05-30T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Z45" s="0" t="inlineStr">
         <is>
@@ -6239,10 +6229,10 @@
         <v>0</v>
       </c>
       <c r="AC45" s="0" t="n">
-        <v>963897980</v>
+        <v>964620392</v>
       </c>
       <c r="AD45" s="0" t="n">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="AE45" s="0"/>
       <c r="AF45" s="0" t="inlineStr">
@@ -6257,11 +6247,11 @@
         <v>41</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>8872</v>
+        <v>9043</v>
       </c>
       <c r="C46" s="0" t="inlineStr">
         <is>
-          <t>MSKU0599445</t>
+          <t>CAXU9261436</t>
         </is>
       </c>
       <c r="D46" s="0" t="n">
@@ -6289,12 +6279,12 @@
       </c>
       <c r="I46" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>OEL BANGLADESH</t>
         </is>
       </c>
       <c r="J46" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2232/2018</t>
         </is>
       </c>
       <c r="K46" s="0" t="inlineStr">
@@ -6319,22 +6309,20 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="U46" s="0" t="inlineStr">
-        <is>
-          <t>KWH686830</t>
-        </is>
+      <c r="U46" s="0" t="n">
+        <v>4107818</v>
       </c>
       <c r="V46" s="0"/>
       <c r="W46" s="0" t="inlineStr">
         <is>
-          <t>2018-9490</t>
+          <t>2018-12935</t>
         </is>
       </c>
       <c r="X46" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-07-30T00:00:00</v>
       </c>
       <c r="Y46" s="4" t="d">
-        <v>2018-05-30T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Z46" s="0" t="inlineStr">
         <is>
@@ -6350,10 +6338,10 @@
         <v>0</v>
       </c>
       <c r="AC46" s="0" t="n">
-        <v>963897980</v>
+        <v>964620392</v>
       </c>
       <c r="AD46" s="0" t="n">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="AE46" s="0"/>
       <c r="AF46" s="0" t="inlineStr">
@@ -6368,11 +6356,11 @@
         <v>42</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>8873</v>
+        <v>9044</v>
       </c>
       <c r="C47" s="0" t="inlineStr">
         <is>
-          <t>MSKU8668440</t>
+          <t>PONU8266482</t>
         </is>
       </c>
       <c r="D47" s="0" t="n">
@@ -6400,12 +6388,12 @@
       </c>
       <c r="I47" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>OEL BANGLADESH</t>
         </is>
       </c>
       <c r="J47" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2232/2018</t>
         </is>
       </c>
       <c r="K47" s="0" t="inlineStr">
@@ -6432,20 +6420,20 @@
       </c>
       <c r="U47" s="0" t="inlineStr">
         <is>
-          <t>KWH687350</t>
+          <t>UL2830749</t>
         </is>
       </c>
       <c r="V47" s="0"/>
       <c r="W47" s="0" t="inlineStr">
         <is>
-          <t>2018-9485</t>
+          <t>2018-12940</t>
         </is>
       </c>
       <c r="X47" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-07-30T00:00:00</v>
       </c>
       <c r="Y47" s="4" t="d">
-        <v>2018-05-30T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Z47" s="0" t="inlineStr">
         <is>
@@ -6461,10 +6449,10 @@
         <v>0</v>
       </c>
       <c r="AC47" s="0" t="n">
-        <v>963897980</v>
+        <v>964620392</v>
       </c>
       <c r="AD47" s="0" t="n">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="AE47" s="0"/>
       <c r="AF47" s="0" t="inlineStr">
@@ -6479,11 +6467,11 @@
         <v>43</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>8874</v>
+        <v>9045</v>
       </c>
       <c r="C48" s="0" t="inlineStr">
         <is>
-          <t>PONU1855367</t>
+          <t>PONU7811427</t>
         </is>
       </c>
       <c r="D48" s="0" t="n">
@@ -6491,7 +6479,7 @@
       </c>
       <c r="E48" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F48" s="0" t="inlineStr">
@@ -6511,12 +6499,12 @@
       </c>
       <c r="I48" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="J48" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2291/2018</t>
         </is>
       </c>
       <c r="K48" s="0" t="inlineStr">
@@ -6543,20 +6531,20 @@
       </c>
       <c r="U48" s="0" t="inlineStr">
         <is>
-          <t>KWH686929</t>
+          <t>UL2830879</t>
         </is>
       </c>
       <c r="V48" s="0"/>
       <c r="W48" s="0" t="inlineStr">
         <is>
-          <t>2018-9501</t>
+          <t>2018-12988</t>
         </is>
       </c>
       <c r="X48" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Y48" s="4" t="d">
-        <v>2018-05-30T00:00:00</v>
+        <v>2018-08-03T00:00:00</v>
       </c>
       <c r="Z48" s="0" t="inlineStr">
         <is>
@@ -6572,10 +6560,10 @@
         <v>0</v>
       </c>
       <c r="AC48" s="0" t="n">
-        <v>963897980</v>
+        <v>964694340</v>
       </c>
       <c r="AD48" s="0" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="AE48" s="0"/>
       <c r="AF48" s="0" t="inlineStr">
@@ -6590,11 +6578,11 @@
         <v>44</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>8875</v>
+        <v>9046</v>
       </c>
       <c r="C49" s="0" t="inlineStr">
         <is>
-          <t>MSKU6694310</t>
+          <t>PONU7918251</t>
         </is>
       </c>
       <c r="D49" s="0" t="n">
@@ -6602,7 +6590,7 @@
       </c>
       <c r="E49" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F49" s="0" t="inlineStr">
@@ -6622,12 +6610,12 @@
       </c>
       <c r="I49" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="J49" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2291/2018</t>
         </is>
       </c>
       <c r="K49" s="0" t="inlineStr">
@@ -6654,20 +6642,20 @@
       </c>
       <c r="U49" s="0" t="inlineStr">
         <is>
-          <t>KWH632850</t>
+          <t>UL2830857</t>
         </is>
       </c>
       <c r="V49" s="0"/>
       <c r="W49" s="0" t="inlineStr">
         <is>
-          <t>2018-9543</t>
+          <t>2018-12986</t>
         </is>
       </c>
       <c r="X49" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Y49" s="4" t="d">
-        <v>2018-05-31T00:00:00</v>
+        <v>2018-08-03T00:00:00</v>
       </c>
       <c r="Z49" s="0" t="inlineStr">
         <is>
@@ -6683,10 +6671,10 @@
         <v>0</v>
       </c>
       <c r="AC49" s="0" t="n">
-        <v>963897980</v>
+        <v>964694340</v>
       </c>
       <c r="AD49" s="0" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="AE49" s="0"/>
       <c r="AF49" s="0" t="inlineStr">
@@ -6701,11 +6689,11 @@
         <v>45</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>8876</v>
+        <v>9047</v>
       </c>
       <c r="C50" s="0" t="inlineStr">
         <is>
-          <t>MSKU6654010</t>
+          <t>PONU1692260</t>
         </is>
       </c>
       <c r="D50" s="0" t="n">
@@ -6733,12 +6721,12 @@
       </c>
       <c r="I50" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="J50" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2291/2018</t>
         </is>
       </c>
       <c r="K50" s="0" t="inlineStr">
@@ -6765,20 +6753,20 @@
       </c>
       <c r="U50" s="0" t="inlineStr">
         <is>
-          <t>KWH687345</t>
+          <t>UL2830877</t>
         </is>
       </c>
       <c r="V50" s="0"/>
       <c r="W50" s="0" t="inlineStr">
         <is>
-          <t>2018-9544</t>
+          <t>2018-12992</t>
         </is>
       </c>
       <c r="X50" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Y50" s="4" t="d">
-        <v>2018-05-31T00:00:00</v>
+        <v>2018-08-03T00:00:00</v>
       </c>
       <c r="Z50" s="0" t="inlineStr">
         <is>
@@ -6794,10 +6782,10 @@
         <v>0</v>
       </c>
       <c r="AC50" s="0" t="n">
-        <v>963897980</v>
+        <v>964694340</v>
       </c>
       <c r="AD50" s="0" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="AE50" s="0"/>
       <c r="AF50" s="0" t="inlineStr">
@@ -6812,11 +6800,11 @@
         <v>46</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>8877</v>
+        <v>9048</v>
       </c>
       <c r="C51" s="0" t="inlineStr">
         <is>
-          <t>MSKU8000770</t>
+          <t>MSKU9609945</t>
         </is>
       </c>
       <c r="D51" s="0" t="n">
@@ -6844,12 +6832,12 @@
       </c>
       <c r="I51" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="J51" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2291/2018</t>
         </is>
       </c>
       <c r="K51" s="0" t="inlineStr">
@@ -6876,20 +6864,20 @@
       </c>
       <c r="U51" s="0" t="inlineStr">
         <is>
-          <t>KWH686930</t>
+          <t>UL2830851</t>
         </is>
       </c>
       <c r="V51" s="0"/>
       <c r="W51" s="0" t="inlineStr">
         <is>
-          <t>2018-9534</t>
+          <t>2018-12991</t>
         </is>
       </c>
       <c r="X51" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Y51" s="4" t="d">
-        <v>2018-05-31T00:00:00</v>
+        <v>2018-08-03T00:00:00</v>
       </c>
       <c r="Z51" s="0" t="inlineStr">
         <is>
@@ -6905,10 +6893,10 @@
         <v>0</v>
       </c>
       <c r="AC51" s="0" t="n">
-        <v>963897980</v>
+        <v>964694340</v>
       </c>
       <c r="AD51" s="0" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="AE51" s="0"/>
       <c r="AF51" s="0" t="inlineStr">
@@ -6923,11 +6911,11 @@
         <v>47</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>8878</v>
+        <v>9049</v>
       </c>
       <c r="C52" s="0" t="inlineStr">
         <is>
-          <t>PONU1823713</t>
+          <t>MSKU8354454</t>
         </is>
       </c>
       <c r="D52" s="0" t="n">
@@ -6935,7 +6923,7 @@
       </c>
       <c r="E52" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F52" s="0" t="inlineStr">
@@ -6955,12 +6943,12 @@
       </c>
       <c r="I52" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="J52" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2291/2018</t>
         </is>
       </c>
       <c r="K52" s="0" t="inlineStr">
@@ -6987,20 +6975,20 @@
       </c>
       <c r="U52" s="0" t="inlineStr">
         <is>
-          <t>KWH687283</t>
+          <t>UL2830854</t>
         </is>
       </c>
       <c r="V52" s="0"/>
       <c r="W52" s="0" t="inlineStr">
         <is>
-          <t>2018-9500</t>
+          <t>2018-12990</t>
         </is>
       </c>
       <c r="X52" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Y52" s="4" t="d">
-        <v>2018-06-02T00:00:00</v>
+        <v>2018-08-03T00:00:00</v>
       </c>
       <c r="Z52" s="0" t="inlineStr">
         <is>
@@ -7016,10 +7004,10 @@
         <v>0</v>
       </c>
       <c r="AC52" s="0" t="n">
-        <v>963897980</v>
+        <v>964694340</v>
       </c>
       <c r="AD52" s="0" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="AE52" s="0"/>
       <c r="AF52" s="0" t="inlineStr">
@@ -7034,11 +7022,11 @@
         <v>48</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>8879</v>
+        <v>9050</v>
       </c>
       <c r="C53" s="0" t="inlineStr">
         <is>
-          <t>HASU4651075</t>
+          <t>PONU1894316</t>
         </is>
       </c>
       <c r="D53" s="0" t="n">
@@ -7046,7 +7034,7 @@
       </c>
       <c r="E53" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F53" s="0" t="inlineStr">
@@ -7066,12 +7054,12 @@
       </c>
       <c r="I53" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="J53" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2291/2018</t>
         </is>
       </c>
       <c r="K53" s="0" t="inlineStr">
@@ -7096,20 +7084,22 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="U53" s="0" t="n">
-        <v>686923</v>
+      <c r="U53" s="0" t="inlineStr">
+        <is>
+          <t>UL2830882</t>
+        </is>
       </c>
       <c r="V53" s="0"/>
       <c r="W53" s="0" t="inlineStr">
         <is>
-          <t>2018-9671</t>
+          <t>2018-12995</t>
         </is>
       </c>
       <c r="X53" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Y53" s="4" t="d">
-        <v>2018-06-02T00:00:00</v>
+        <v>2018-08-03T00:00:00</v>
       </c>
       <c r="Z53" s="0" t="inlineStr">
         <is>
@@ -7125,10 +7115,10 @@
         <v>0</v>
       </c>
       <c r="AC53" s="0" t="n">
-        <v>963897980</v>
+        <v>964694340</v>
       </c>
       <c r="AD53" s="0" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="AE53" s="0"/>
       <c r="AF53" s="0" t="inlineStr">
@@ -7143,11 +7133,11 @@
         <v>49</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>8880</v>
+        <v>9051</v>
       </c>
       <c r="C54" s="0" t="inlineStr">
         <is>
-          <t>PONU1438403</t>
+          <t>MSKU9252694</t>
         </is>
       </c>
       <c r="D54" s="0" t="n">
@@ -7155,7 +7145,7 @@
       </c>
       <c r="E54" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F54" s="0" t="inlineStr">
@@ -7175,12 +7165,12 @@
       </c>
       <c r="I54" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="J54" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2291/2018</t>
         </is>
       </c>
       <c r="K54" s="0" t="inlineStr">
@@ -7207,20 +7197,20 @@
       </c>
       <c r="U54" s="0" t="inlineStr">
         <is>
-          <t>KWH687276</t>
+          <t>UL2830875</t>
         </is>
       </c>
       <c r="V54" s="0"/>
       <c r="W54" s="0" t="inlineStr">
         <is>
-          <t>2018-9672</t>
+          <t>2018-12998</t>
         </is>
       </c>
       <c r="X54" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Y54" s="4" t="d">
-        <v>2018-06-02T00:00:00</v>
+        <v>2018-08-03T00:00:00</v>
       </c>
       <c r="Z54" s="0" t="inlineStr">
         <is>
@@ -7236,10 +7226,10 @@
         <v>0</v>
       </c>
       <c r="AC54" s="0" t="n">
-        <v>963897980</v>
+        <v>964694340</v>
       </c>
       <c r="AD54" s="0" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="AE54" s="0"/>
       <c r="AF54" s="0" t="inlineStr">
@@ -7254,11 +7244,11 @@
         <v>50</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>8881</v>
+        <v>9052</v>
       </c>
       <c r="C55" s="0" t="inlineStr">
         <is>
-          <t>MSKU6316727</t>
+          <t>MSKU9470931</t>
         </is>
       </c>
       <c r="D55" s="0" t="n">
@@ -7266,7 +7256,7 @@
       </c>
       <c r="E55" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F55" s="0" t="inlineStr">
@@ -7286,12 +7276,12 @@
       </c>
       <c r="I55" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="J55" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2291/2018</t>
         </is>
       </c>
       <c r="K55" s="0" t="inlineStr">
@@ -7318,20 +7308,20 @@
       </c>
       <c r="U55" s="0" t="inlineStr">
         <is>
-          <t>UL2916156</t>
+          <t>UL2830855</t>
         </is>
       </c>
       <c r="V55" s="0"/>
       <c r="W55" s="0" t="inlineStr">
         <is>
-          <t>2018-9673</t>
+          <t>2018-12999</t>
         </is>
       </c>
       <c r="X55" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Y55" s="4" t="d">
-        <v>2018-06-02T00:00:00</v>
+        <v>2018-08-03T00:00:00</v>
       </c>
       <c r="Z55" s="0" t="inlineStr">
         <is>
@@ -7347,10 +7337,10 @@
         <v>0</v>
       </c>
       <c r="AC55" s="0" t="n">
-        <v>963897980</v>
+        <v>964694340</v>
       </c>
       <c r="AD55" s="0" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="AE55" s="0"/>
       <c r="AF55" s="0" t="inlineStr">
@@ -7365,11 +7355,11 @@
         <v>51</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>8882</v>
+        <v>9053</v>
       </c>
       <c r="C56" s="0" t="inlineStr">
         <is>
-          <t>MAEU6360629</t>
+          <t>MSKU8752592</t>
         </is>
       </c>
       <c r="D56" s="0" t="n">
@@ -7377,7 +7367,7 @@
       </c>
       <c r="E56" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F56" s="0" t="inlineStr">
@@ -7397,12 +7387,12 @@
       </c>
       <c r="I56" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="J56" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2291/2018</t>
         </is>
       </c>
       <c r="K56" s="0" t="inlineStr">
@@ -7429,20 +7419,20 @@
       </c>
       <c r="U56" s="0" t="inlineStr">
         <is>
-          <t>KWH687285</t>
+          <t>UL2830880</t>
         </is>
       </c>
       <c r="V56" s="0"/>
       <c r="W56" s="0" t="inlineStr">
         <is>
-          <t>2018-9574</t>
+          <t>2018-12997</t>
         </is>
       </c>
       <c r="X56" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Y56" s="4" t="d">
-        <v>2018-06-02T00:00:00</v>
+        <v>2018-08-03T00:00:00</v>
       </c>
       <c r="Z56" s="0" t="inlineStr">
         <is>
@@ -7458,10 +7448,10 @@
         <v>0</v>
       </c>
       <c r="AC56" s="0" t="n">
-        <v>963897980</v>
+        <v>964694340</v>
       </c>
       <c r="AD56" s="0" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="AE56" s="0"/>
       <c r="AF56" s="0" t="inlineStr">
@@ -7476,11 +7466,11 @@
         <v>52</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>8883</v>
+        <v>9054</v>
       </c>
       <c r="C57" s="0" t="inlineStr">
         <is>
-          <t>PONU1484707</t>
+          <t>MIEU3069581</t>
         </is>
       </c>
       <c r="D57" s="0" t="n">
@@ -7488,7 +7478,7 @@
       </c>
       <c r="E57" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F57" s="0" t="inlineStr">
@@ -7508,12 +7498,12 @@
       </c>
       <c r="I57" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="J57" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2291/2018</t>
         </is>
       </c>
       <c r="K57" s="0" t="inlineStr">
@@ -7540,20 +7530,20 @@
       </c>
       <c r="U57" s="0" t="inlineStr">
         <is>
-          <t>KWH687286</t>
+          <t>UL2830853</t>
         </is>
       </c>
       <c r="V57" s="0"/>
       <c r="W57" s="0" t="inlineStr">
         <is>
-          <t>2018-9679</t>
+          <t>2018-13084</t>
         </is>
       </c>
       <c r="X57" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Y57" s="4" t="d">
-        <v>2018-06-02T00:00:00</v>
+        <v>2018-08-04T00:00:00</v>
       </c>
       <c r="Z57" s="0" t="inlineStr">
         <is>
@@ -7569,10 +7559,10 @@
         <v>0</v>
       </c>
       <c r="AC57" s="0" t="n">
-        <v>963897980</v>
+        <v>964694340</v>
       </c>
       <c r="AD57" s="0" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="AE57" s="0"/>
       <c r="AF57" s="0" t="inlineStr">
@@ -7587,11 +7577,11 @@
         <v>53</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>8884</v>
+        <v>9055</v>
       </c>
       <c r="C58" s="0" t="inlineStr">
         <is>
-          <t>MRKU3419530</t>
+          <t>MSKU6874333</t>
         </is>
       </c>
       <c r="D58" s="0" t="n">
@@ -7599,7 +7589,7 @@
       </c>
       <c r="E58" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F58" s="0" t="inlineStr">
@@ -7619,12 +7609,12 @@
       </c>
       <c r="I58" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="J58" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2291/2018</t>
         </is>
       </c>
       <c r="K58" s="0" t="inlineStr">
@@ -7649,20 +7639,22 @@
           <t>RAW COTTON</t>
         </is>
       </c>
-      <c r="U58" s="0" t="n">
-        <v>1098426</v>
+      <c r="U58" s="0" t="inlineStr">
+        <is>
+          <t>UL2830881</t>
+        </is>
       </c>
       <c r="V58" s="0"/>
       <c r="W58" s="0" t="inlineStr">
         <is>
-          <t>2018-9632</t>
+          <t>2018-13180</t>
         </is>
       </c>
       <c r="X58" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Y58" s="4" t="d">
-        <v>2018-06-03T00:00:00</v>
+        <v>2018-08-10T00:00:00</v>
       </c>
       <c r="Z58" s="0" t="inlineStr">
         <is>
@@ -7678,10 +7670,10 @@
         <v>0</v>
       </c>
       <c r="AC58" s="0" t="n">
-        <v>963897980</v>
+        <v>964694340</v>
       </c>
       <c r="AD58" s="0" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="AE58" s="0"/>
       <c r="AF58" s="0" t="inlineStr">
@@ -7696,11 +7688,11 @@
         <v>54</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>8885</v>
+        <v>9056</v>
       </c>
       <c r="C59" s="0" t="inlineStr">
         <is>
-          <t>PONU7575743</t>
+          <t>PONU7777364</t>
         </is>
       </c>
       <c r="D59" s="0" t="n">
@@ -7728,12 +7720,12 @@
       </c>
       <c r="I59" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="J59" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2291/2018</t>
         </is>
       </c>
       <c r="K59" s="0" t="inlineStr">
@@ -7760,20 +7752,20 @@
       </c>
       <c r="U59" s="0" t="inlineStr">
         <is>
-          <t>KWH686922</t>
+          <t>UL2830878</t>
         </is>
       </c>
       <c r="V59" s="0"/>
       <c r="W59" s="0" t="inlineStr">
         <is>
-          <t>2018-9506</t>
+          <t>2018-13246</t>
         </is>
       </c>
       <c r="X59" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Y59" s="4" t="d">
-        <v>2018-06-04T00:00:00</v>
+        <v>2018-08-11T00:00:00</v>
       </c>
       <c r="Z59" s="0" t="inlineStr">
         <is>
@@ -7789,10 +7781,10 @@
         <v>0</v>
       </c>
       <c r="AC59" s="0" t="n">
-        <v>963897980</v>
+        <v>964694340</v>
       </c>
       <c r="AD59" s="0" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="AE59" s="0"/>
       <c r="AF59" s="0" t="inlineStr">
@@ -7807,11 +7799,11 @@
         <v>55</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>8886</v>
+        <v>9057</v>
       </c>
       <c r="C60" s="0" t="inlineStr">
         <is>
-          <t>TCLU5436696</t>
+          <t>PONU1813931</t>
         </is>
       </c>
       <c r="D60" s="0" t="n">
@@ -7819,7 +7811,7 @@
       </c>
       <c r="E60" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F60" s="0" t="inlineStr">
@@ -7839,12 +7831,12 @@
       </c>
       <c r="I60" s="0" t="inlineStr">
         <is>
-          <t>X-PRESS MAHANANDA</t>
+          <t>XPRESS LHOTSE</t>
         </is>
       </c>
       <c r="J60" s="0" t="inlineStr">
         <is>
-          <t>1588/2018</t>
+          <t>2291/2018</t>
         </is>
       </c>
       <c r="K60" s="0" t="inlineStr">
@@ -7871,20 +7863,20 @@
       </c>
       <c r="U60" s="0" t="inlineStr">
         <is>
-          <t>KWH687295</t>
+          <t>UL2830852</t>
         </is>
       </c>
       <c r="V60" s="0"/>
       <c r="W60" s="0" t="inlineStr">
         <is>
-          <t>2018-9736</t>
+          <t>2018-13181</t>
         </is>
       </c>
       <c r="X60" s="4" t="d">
-        <v>2018-05-19T00:00:00</v>
+        <v>2018-08-01T00:00:00</v>
       </c>
       <c r="Y60" s="4" t="d">
-        <v>2018-06-04T00:00:00</v>
+        <v>2018-08-11T00:00:00</v>
       </c>
       <c r="Z60" s="0" t="inlineStr">
         <is>
@@ -7900,10 +7892,10 @@
         <v>0</v>
       </c>
       <c r="AC60" s="0" t="n">
-        <v>963897980</v>
+        <v>964694340</v>
       </c>
       <c r="AD60" s="0" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="AE60" s="0"/>
       <c r="AF60" s="0" t="inlineStr">
@@ -7918,15 +7910,15 @@
         <v>56</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>8887</v>
+        <v>9722</v>
       </c>
       <c r="C61" s="0" t="inlineStr">
         <is>
-          <t>MSKU6253948</t>
+          <t>MSKU5753050</t>
         </is>
       </c>
       <c r="D61" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E61" s="0" t="inlineStr">
         <is>
@@ -7950,17 +7942,17 @@
       </c>
       <c r="I61" s="0" t="inlineStr">
         <is>
-          <t>BLPL GRACE</t>
+          <t>CAROLINA TRADER</t>
         </is>
       </c>
       <c r="J61" s="0" t="inlineStr">
         <is>
-          <t>1650/2018</t>
+          <t>2794/2018</t>
         </is>
       </c>
       <c r="K61" s="0" t="inlineStr">
         <is>
-          <t>A A COARSE SPUN LTD</t>
+          <t>JTC CARGO INTERNATIONAL</t>
         </is>
       </c>
       <c r="L61" s="0" t="inlineStr">
@@ -7977,25 +7969,25 @@
       <c r="S61" s="0"/>
       <c r="T61" s="0" t="inlineStr">
         <is>
-          <t>RAW COTTON</t>
+          <t>SODIUM SULPHATE</t>
         </is>
       </c>
       <c r="U61" s="0" t="inlineStr">
         <is>
-          <t>KWH686907</t>
+          <t>CN8969052</t>
         </is>
       </c>
       <c r="V61" s="0"/>
       <c r="W61" s="0" t="inlineStr">
         <is>
-          <t>2018-9531</t>
+          <t>2018-15622</t>
         </is>
       </c>
       <c r="X61" s="4" t="d">
-        <v>2018-05-29T00:00:00</v>
+        <v>2018-09-17T00:00:00</v>
       </c>
       <c r="Y61" s="4" t="d">
-        <v>2018-05-31T00:00:00</v>
+        <v>2018-09-17T00:00:00</v>
       </c>
       <c r="Z61" s="0" t="inlineStr">
         <is>
@@ -8010,11 +8002,13 @@
       <c r="AB61" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC61" s="0" t="n">
-        <v>575334555</v>
+      <c r="AC61" s="0" t="inlineStr">
+        <is>
+          <t>MCB418551</t>
+        </is>
       </c>
       <c r="AD61" s="0" t="n">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="AE61" s="0"/>
       <c r="AF61" s="0" t="inlineStr">
@@ -8029,15 +8023,15 @@
         <v>57</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>8888</v>
+        <v>9723</v>
       </c>
       <c r="C62" s="0" t="inlineStr">
         <is>
-          <t>MSKU6120061</t>
+          <t>PONU2098653</t>
         </is>
       </c>
       <c r="D62" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E62" s="0" t="inlineStr">
         <is>
@@ -8061,17 +8055,17 @@
       </c>
       <c r="I62" s="0" t="inlineStr">
         <is>
-          <t>BLPL GRACE</t>
+          <t>CAROLINA TRADER</t>
         </is>
       </c>
       <c r="J62" s="0" t="inlineStr">
         <is>
-          <t>1650/2018</t>
+          <t>2794/2018</t>
         </is>
       </c>
       <c r="K62" s="0" t="inlineStr">
         <is>
-          <t>A A COARSE SPUN LTD</t>
+          <t>JTC CARGO INTERNATIONAL</t>
         </is>
       </c>
       <c r="L62" s="0" t="inlineStr">
@@ -8088,25 +8082,25 @@
       <c r="S62" s="0"/>
       <c r="T62" s="0" t="inlineStr">
         <is>
-          <t>RAW COTTON</t>
+          <t>SODIUM SULPHATE</t>
         </is>
       </c>
       <c r="U62" s="0" t="inlineStr">
         <is>
-          <t>KWH687320</t>
+          <t>CN8969053</t>
         </is>
       </c>
       <c r="V62" s="0"/>
       <c r="W62" s="0" t="inlineStr">
         <is>
-          <t>2018-9532</t>
+          <t>2018-15623</t>
         </is>
       </c>
       <c r="X62" s="4" t="d">
-        <v>2018-05-29T00:00:00</v>
+        <v>2018-09-17T00:00:00</v>
       </c>
       <c r="Y62" s="4" t="d">
-        <v>2018-05-31T00:00:00</v>
+        <v>2018-09-17T00:00:00</v>
       </c>
       <c r="Z62" s="0" t="inlineStr">
         <is>
@@ -8121,11 +8115,13 @@
       <c r="AB62" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC62" s="0" t="n">
-        <v>575334555</v>
+      <c r="AC62" s="0" t="inlineStr">
+        <is>
+          <t>MCB418551</t>
+        </is>
       </c>
       <c r="AD62" s="0" t="n">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="AE62" s="0"/>
       <c r="AF62" s="0" t="inlineStr">
@@ -8140,19 +8136,19 @@
         <v>58</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>8889</v>
+        <v>9724</v>
       </c>
       <c r="C63" s="0" t="inlineStr">
         <is>
-          <t>PONU7330756</t>
+          <t>MSKU2852892</t>
         </is>
       </c>
       <c r="D63" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E63" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F63" s="0" t="inlineStr">
@@ -8172,17 +8168,17 @@
       </c>
       <c r="I63" s="0" t="inlineStr">
         <is>
-          <t>BLPL GRACE</t>
+          <t>CAROLINA TRADER</t>
         </is>
       </c>
       <c r="J63" s="0" t="inlineStr">
         <is>
-          <t>1650/2018</t>
+          <t>2794/2018</t>
         </is>
       </c>
       <c r="K63" s="0" t="inlineStr">
         <is>
-          <t>A A COARSE SPUN LTD</t>
+          <t>JTC CARGO INTERNATIONAL</t>
         </is>
       </c>
       <c r="L63" s="0" t="inlineStr">
@@ -8199,25 +8195,25 @@
       <c r="S63" s="0"/>
       <c r="T63" s="0" t="inlineStr">
         <is>
-          <t>RAW COTTON</t>
+          <t>SODIUM SULPHATE</t>
         </is>
       </c>
       <c r="U63" s="0" t="inlineStr">
         <is>
-          <t>KWH687322</t>
+          <t>CN8969127</t>
         </is>
       </c>
       <c r="V63" s="0"/>
       <c r="W63" s="0" t="inlineStr">
         <is>
-          <t>2018-9693</t>
+          <t>2018-15624</t>
         </is>
       </c>
       <c r="X63" s="4" t="d">
-        <v>2018-05-29T00:00:00</v>
+        <v>2018-09-17T00:00:00</v>
       </c>
       <c r="Y63" s="4" t="d">
-        <v>2018-06-03T00:00:00</v>
+        <v>2018-09-17T00:00:00</v>
       </c>
       <c r="Z63" s="0" t="inlineStr">
         <is>
@@ -8232,11 +8228,13 @@
       <c r="AB63" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC63" s="0" t="n">
-        <v>575334555</v>
+      <c r="AC63" s="0" t="inlineStr">
+        <is>
+          <t>MCB418551</t>
+        </is>
       </c>
       <c r="AD63" s="0" t="n">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="AE63" s="0"/>
       <c r="AF63" s="0" t="inlineStr">
@@ -8251,19 +8249,19 @@
         <v>59</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>8890</v>
+        <v>9725</v>
       </c>
       <c r="C64" s="0" t="inlineStr">
         <is>
-          <t>SUDU8595563</t>
+          <t>IPXU3733892</t>
         </is>
       </c>
       <c r="D64" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E64" s="0" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F64" s="0" t="inlineStr">
@@ -8283,17 +8281,17 @@
       </c>
       <c r="I64" s="0" t="inlineStr">
         <is>
-          <t>BLPL GRACE</t>
+          <t>CAROLINA TRADER</t>
         </is>
       </c>
       <c r="J64" s="0" t="inlineStr">
         <is>
-          <t>1650/2018</t>
+          <t>2794/2018</t>
         </is>
       </c>
       <c r="K64" s="0" t="inlineStr">
         <is>
-          <t>A A COARSE SPUN LTD</t>
+          <t>JTC CARGO INTERNATIONAL</t>
         </is>
       </c>
       <c r="L64" s="0" t="inlineStr">
@@ -8310,25 +8308,25 @@
       <c r="S64" s="0"/>
       <c r="T64" s="0" t="inlineStr">
         <is>
-          <t>RAW COTTON</t>
+          <t>SODIUM SULPHATE</t>
         </is>
       </c>
       <c r="U64" s="0" t="inlineStr">
         <is>
-          <t>KWH686925</t>
+          <t>CN8969128</t>
         </is>
       </c>
       <c r="V64" s="0"/>
       <c r="W64" s="0" t="inlineStr">
         <is>
-          <t>2018-9704</t>
+          <t>2018-15625</t>
         </is>
       </c>
       <c r="X64" s="4" t="d">
-        <v>2018-05-29T00:00:00</v>
+        <v>2018-09-17T00:00:00</v>
       </c>
       <c r="Y64" s="4" t="d">
-        <v>2018-06-03T00:00:00</v>
+        <v>2018-09-17T00:00:00</v>
       </c>
       <c r="Z64" s="0" t="inlineStr">
         <is>
@@ -8343,11 +8341,13 @@
       <c r="AB64" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AC64" s="0" t="n">
-        <v>575334555</v>
+      <c r="AC64" s="0" t="inlineStr">
+        <is>
+          <t>MCB418551</t>
+        </is>
       </c>
       <c r="AD64" s="0" t="n">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="AE64" s="0"/>
       <c r="AF64" s="0" t="inlineStr">
